--- a/dumps/Stocks/Indian Rail Tour Corp Ltd.xlsx
+++ b/dumps/Stocks/Indian Rail Tour Corp Ltd.xlsx
@@ -19,10 +19,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$₹]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -239,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -378,6 +379,7 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,7 +708,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1005"/>
+  <dimension ref="A1:AP1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1055,8 +1057,8 @@
       <c r="AP4" s="1" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="59">
-      <c r="A5" s="71" t="n">
-        <v>46057</v>
+      <c r="A5" s="72" t="n">
+        <v>46062</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1072,26 +1074,30 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>617.5</v>
+        <v>623.8</v>
       </c>
       <c r="F5" t="n">
-        <v>6218.91</v>
+        <v>6282.21</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6.2</v>
+        <v>6.23</v>
       </c>
       <c r="I5" t="n">
-        <v>37.71</v>
+        <v>37.98</v>
+      </c>
+      <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="59">
       <c r="A6" s="71" t="n">
-        <v>46050</v>
+        <v>46057</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1104,13 +1110,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>617.8</v>
+        <v>617.5</v>
       </c>
       <c r="F6" t="n">
-        <v>3110.92</v>
+        <v>6218.91</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1118,15 +1124,15 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3.11</v>
+        <v>6.2</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81</v>
+        <v>37.71</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="59">
       <c r="A7" s="71" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1139,13 +1145,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>614.4</v>
+        <v>617.8</v>
       </c>
       <c r="F7" t="n">
-        <v>6187.54</v>
+        <v>3110.92</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1153,15 +1159,15 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6.14</v>
+        <v>3.11</v>
       </c>
       <c r="I7" t="n">
-        <v>37.4</v>
+        <v>18.81</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="59">
       <c r="A8" s="71" t="n">
-        <v>46038</v>
+        <v>46049</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1174,13 +1180,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>631.5</v>
+        <v>614.4</v>
       </c>
       <c r="F8" t="n">
-        <v>2543.93</v>
+        <v>6187.54</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1188,10 +1194,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2.53</v>
+        <v>6.14</v>
       </c>
       <c r="I8" t="n">
-        <v>15.4</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="59">
@@ -1209,13 +1215,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
         <v>631.5</v>
       </c>
       <c r="F9" t="n">
-        <v>635.96</v>
+        <v>2543.93</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1223,15 +1229,15 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.63</v>
+        <v>2.53</v>
       </c>
       <c r="I9" t="n">
-        <v>3.83</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="59">
       <c r="A10" s="71" t="n">
-        <v>46034</v>
+        <v>46038</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1244,13 +1250,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>637.3</v>
+        <v>631.5</v>
       </c>
       <c r="F10" t="n">
-        <v>3209.13</v>
+        <v>635.96</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1258,15 +1264,15 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>0.63</v>
       </c>
       <c r="I10" t="n">
-        <v>19.43</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="59">
       <c r="A11" s="71" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1279,13 +1285,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>655.75</v>
+        <v>637.3</v>
       </c>
       <c r="F11" t="n">
-        <v>1981.2</v>
+        <v>3209.13</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1293,10 +1299,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.96</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>11.99</v>
+        <v>19.43</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="59">
@@ -1314,13 +1320,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
         <v>655.75</v>
       </c>
       <c r="F12" t="n">
-        <v>1320.78</v>
+        <v>1981.2</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1328,15 +1334,15 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1.3</v>
+        <v>1.96</v>
       </c>
       <c r="I12" t="n">
-        <v>7.98</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="59">
       <c r="A13" s="71" t="n">
-        <v>46017</v>
+        <v>46030</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1349,13 +1355,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>689.85</v>
+        <v>655.75</v>
       </c>
       <c r="F13" t="n">
-        <v>2084.24</v>
+        <v>1320.78</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1363,10 +1369,10 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2.08</v>
+        <v>1.3</v>
       </c>
       <c r="I13" t="n">
-        <v>12.61</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="59">
@@ -1384,13 +1390,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>689.75</v>
+        <v>689.85</v>
       </c>
       <c r="F14" t="n">
-        <v>1389.27</v>
+        <v>2084.24</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1398,15 +1404,15 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1.38</v>
+        <v>2.08</v>
       </c>
       <c r="I14" t="n">
-        <v>8.390000000000001</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="59">
       <c r="A15" s="71" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1419,13 +1425,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>681.7</v>
+        <v>689.75</v>
       </c>
       <c r="F15" t="n">
-        <v>3432.64</v>
+        <v>1389.27</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1433,15 +1439,15 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3.39</v>
+        <v>1.38</v>
       </c>
       <c r="I15" t="n">
-        <v>20.75</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="59">
       <c r="A16" s="71" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1457,10 +1463,10 @@
         <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>683.75</v>
+        <v>681.7</v>
       </c>
       <c r="F16" t="n">
-        <v>3442.95</v>
+        <v>3432.64</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1468,19 +1474,19 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.39</v>
       </c>
       <c r="I16" t="n">
-        <v>20.8</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="59">
       <c r="A17" s="71" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1492,10 +1498,10 @@
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>662.7</v>
+        <v>683.75</v>
       </c>
       <c r="F17" t="n">
-        <v>3336.98</v>
+        <v>3442.95</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1503,19 +1509,19 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>20.16</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="59">
       <c r="A18" s="71" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1524,13 +1530,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>667.35</v>
+        <v>662.7</v>
       </c>
       <c r="F18" t="n">
-        <v>6720.84</v>
+        <v>3336.98</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1538,19 +1544,19 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6.71</v>
+        <v>3.32</v>
       </c>
       <c r="I18" t="n">
-        <v>40.63</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="59">
       <c r="A19" s="71" t="n">
-        <v>46002</v>
+        <v>46008</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1559,13 +1565,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>667.85</v>
+        <v>667.35</v>
       </c>
       <c r="F19" t="n">
-        <v>3362.94</v>
+        <v>6720.84</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1573,19 +1579,19 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3.35</v>
+        <v>6.71</v>
       </c>
       <c r="I19" t="n">
-        <v>20.34</v>
+        <v>40.63</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="59">
       <c r="A20" s="71" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1594,13 +1600,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>671.15</v>
+        <v>667.85</v>
       </c>
       <c r="F20" t="n">
-        <v>6759.12</v>
+        <v>3362.94</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1608,19 +1614,19 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6.68</v>
+        <v>3.35</v>
       </c>
       <c r="I20" t="n">
-        <v>40.94</v>
+        <v>20.34</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="59">
       <c r="A21" s="71" t="n">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1629,13 +1635,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>682.3</v>
+        <v>671.15</v>
       </c>
       <c r="F21" t="n">
-        <v>3435.69</v>
+        <v>6759.12</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1643,15 +1649,15 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3.43</v>
+        <v>6.68</v>
       </c>
       <c r="I21" t="n">
-        <v>20.76</v>
+        <v>40.94</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="59">
       <c r="A22" s="71" t="n">
-        <v>45988</v>
+        <v>45993</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1664,13 +1670,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>692.95</v>
+        <v>682.3</v>
       </c>
       <c r="F22" t="n">
-        <v>2093.57</v>
+        <v>3435.69</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1678,10 +1684,10 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2.07</v>
+        <v>3.43</v>
       </c>
       <c r="I22" t="n">
-        <v>12.65</v>
+        <v>20.76</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="59">
@@ -1699,13 +1705,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>693</v>
+        <v>692.95</v>
       </c>
       <c r="F23" t="n">
-        <v>1395.81</v>
+        <v>2093.57</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1713,19 +1719,19 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1.37</v>
+        <v>2.07</v>
       </c>
       <c r="I23" t="n">
-        <v>8.44</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="59">
       <c r="A24" s="71" t="n">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1734,24 +1740,24 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>693</v>
       </c>
       <c r="F24" t="n">
-        <v>575</v>
+        <v>1395.81</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.5.0000/- per share on Ex-Date: 21-NOV-2025  Interim-Dividend of Rs.5.0000/- per share on Ex-Date: 21-NOV-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="59">
@@ -1760,7 +1766,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1769,24 +1775,24 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="E25" t="n">
-        <v>695</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>1399.86</v>
+        <v>575</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.5.0000/- per share on Ex-Date: 21-NOV-2025  Interim-Dividend of Rs.5.0000/- per share on Ex-Date: 21-NOV-2025</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>8.470000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="59">
@@ -1804,13 +1810,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
         <v>695</v>
       </c>
       <c r="F26" t="n">
-        <v>2099.81</v>
+        <v>1399.86</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1818,19 +1824,19 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2.09</v>
+        <v>1.39</v>
       </c>
       <c r="I26" t="n">
-        <v>12.72</v>
+        <v>8.470000000000001</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="59">
       <c r="A27" s="71" t="n">
-        <v>45978</v>
+        <v>45982</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1839,13 +1845,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="F27" t="n">
-        <v>3600.39</v>
+        <v>2099.81</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1853,15 +1859,15 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3.59</v>
+        <v>2.09</v>
       </c>
       <c r="I27" t="n">
-        <v>21.8</v>
+        <v>12.72</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="59">
       <c r="A28" s="71" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1877,10 +1883,10 @@
         <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>703.8</v>
+        <v>715</v>
       </c>
       <c r="F28" t="n">
-        <v>3543.96</v>
+        <v>3600.39</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1888,19 +1894,19 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>3.53</v>
+        <v>3.59</v>
       </c>
       <c r="I28" t="n">
-        <v>21.43</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="59">
       <c r="A29" s="71" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1912,10 +1918,10 @@
         <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>710.5</v>
+        <v>703.8</v>
       </c>
       <c r="F29" t="n">
-        <v>3577.65</v>
+        <v>3543.96</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1926,12 +1932,12 @@
         <v>3.53</v>
       </c>
       <c r="I29" t="n">
-        <v>21.62</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="59">
       <c r="A30" s="71" t="n">
-        <v>45968</v>
+        <v>45974</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1947,10 +1953,10 @@
         <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>700.95</v>
+        <v>710.5</v>
       </c>
       <c r="F30" t="n">
-        <v>3529.58</v>
+        <v>3577.65</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1958,15 +1964,15 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="I30" t="n">
-        <v>21.33</v>
+        <v>21.62</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="59">
       <c r="A31" s="71" t="n">
-        <v>45959</v>
+        <v>45968</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1982,10 +1988,10 @@
         <v>5</v>
       </c>
       <c r="E31" t="n">
-        <v>725.15</v>
+        <v>700.95</v>
       </c>
       <c r="F31" t="n">
-        <v>3651.44</v>
+        <v>3529.58</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1993,15 +1999,15 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3.62</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>22.07</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="59">
       <c r="A32" s="71" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2017,10 +2023,10 @@
         <v>5</v>
       </c>
       <c r="E32" t="n">
-        <v>722.4</v>
+        <v>725.15</v>
       </c>
       <c r="F32" t="n">
-        <v>3637.58</v>
+        <v>3651.44</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2031,12 +2037,12 @@
         <v>3.62</v>
       </c>
       <c r="I32" t="n">
-        <v>21.96</v>
+        <v>22.07</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="59">
       <c r="A33" s="71" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2052,10 +2058,10 @@
         <v>5</v>
       </c>
       <c r="E33" t="n">
-        <v>721</v>
+        <v>722.4</v>
       </c>
       <c r="F33" t="n">
-        <v>3630.57</v>
+        <v>3637.58</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2063,7 +2069,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="I33" t="n">
         <v>21.96</v>
@@ -2071,11 +2077,11 @@
     </row>
     <row r="34" ht="15.75" customHeight="1" s="59">
       <c r="A34" s="71" t="n">
-        <v>45950</v>
+        <v>45954</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2087,10 +2093,10 @@
         <v>5</v>
       </c>
       <c r="E34" t="n">
-        <v>726.7</v>
+        <v>721</v>
       </c>
       <c r="F34" t="n">
-        <v>3659.25</v>
+        <v>3630.57</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2098,19 +2104,19 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>3.63</v>
+        <v>3.61</v>
       </c>
       <c r="I34" t="n">
-        <v>22.12</v>
+        <v>21.96</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="59">
       <c r="A35" s="71" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2119,13 +2125,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>718.5</v>
+        <v>726.7</v>
       </c>
       <c r="F35" t="n">
-        <v>5788.72</v>
+        <v>3659.25</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2133,15 +2139,15 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>5.76</v>
+        <v>3.63</v>
       </c>
       <c r="I35" t="n">
-        <v>34.96</v>
+        <v>22.12</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="59">
       <c r="A36" s="71" t="n">
-        <v>45903</v>
+        <v>45947</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2154,13 +2160,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E36" t="n">
-        <v>711.75</v>
+        <v>718.5</v>
       </c>
       <c r="F36" t="n">
-        <v>3583.98</v>
+        <v>5788.72</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2168,15 +2174,15 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>3.57</v>
+        <v>5.76</v>
       </c>
       <c r="I36" t="n">
-        <v>21.66</v>
+        <v>34.96</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="59">
       <c r="A37" s="71" t="n">
-        <v>45897</v>
+        <v>45903</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2189,13 +2195,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E37" t="n">
-        <v>709.45</v>
+        <v>711.75</v>
       </c>
       <c r="F37" t="n">
-        <v>1428.97</v>
+        <v>3583.98</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2203,113 +2209,50 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1.42</v>
+        <v>3.57</v>
       </c>
       <c r="I37" t="n">
-        <v>8.65</v>
+        <v>21.66</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="59">
-      <c r="A38" s="25" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B38" s="26" t="inlineStr">
+      <c r="A38" s="71" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C38" s="26" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D38" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="E38" s="28" t="n">
-        <v>731.85</v>
-      </c>
-      <c r="F38" s="28">
-        <f>#REF!*#REF!</f>
-        <v/>
-      </c>
-      <c r="G38" s="26" t="inlineStr">
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>709.45</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1428.97</v>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H38" s="27" t="n"/>
-      <c r="I38" s="27" t="n"/>
-      <c r="J38" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K38" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="L38" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
-        <v/>
-      </c>
-      <c r="M38" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="N38" s="32">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
-        <v/>
-      </c>
-      <c r="O38" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="P38" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
-        <v/>
-      </c>
-      <c r="Q38" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="R38" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
-        <v/>
-      </c>
-      <c r="S38" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="T38" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
-        <v/>
-      </c>
-      <c r="U38" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="V38" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
-        <v/>
-      </c>
-      <c r="W38" s="31" t="n"/>
-      <c r="X38" s="31" t="n"/>
-      <c r="Y38" s="30">
-        <f>IF(AND(#REF!= "Buy",#REF!&lt;&gt; "",#REF!&lt;&gt; "",#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="Z38" s="31" t="n"/>
-      <c r="AA38" s="31" t="n"/>
-      <c r="AB38" s="32" t="n"/>
-      <c r="AC38" s="33">
-        <f>IF(#REF!="DIV",#REF!, "")</f>
-        <v/>
-      </c>
-      <c r="AD38" s="34" t="n"/>
+      <c r="H38" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8.65</v>
+      </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="59">
       <c r="A39" s="25" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B39" s="26" t="inlineStr">
         <is>
@@ -2322,13 +2265,13 @@
         </is>
       </c>
       <c r="D39" s="27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E39" s="28" t="n">
-        <v>723.59</v>
+        <v>731.85</v>
       </c>
       <c r="F39" s="28">
-        <f>D5*E5</f>
+        <f>#REF!*#REF!</f>
         <v/>
       </c>
       <c r="G39" s="26" t="inlineStr">
@@ -2343,71 +2286,71 @@
         <v/>
       </c>
       <c r="K39" s="30">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/SUM(F5:I5), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="L39" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="M39" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="N39" s="32">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
         <v/>
       </c>
       <c r="O39" s="30">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/SUM(F5:I5), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="P39" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="R39" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
         <v/>
       </c>
       <c r="S39" s="30">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/SUM(F5:I5), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="T39" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="U39" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="V39" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
       <c r="W39" s="31" t="n"/>
       <c r="X39" s="31" t="n"/>
       <c r="Y39" s="30">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/SUM(F5:I5), "")</f>
+        <f>IF(AND(#REF!= "Buy",#REF!&lt;&gt; "",#REF!&lt;&gt; "",#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="Z39" s="31" t="n"/>
       <c r="AA39" s="31" t="n"/>
       <c r="AB39" s="32" t="n"/>
       <c r="AC39" s="33">
-        <f>IF(B5="DIV", F5,"")</f>
+        <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD39" s="34" t="n"/>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="59">
       <c r="A40" s="25" t="n">
-        <v>45903</v>
+        <v>45947</v>
       </c>
       <c r="B40" s="26" t="inlineStr">
         <is>
@@ -2420,95 +2363,92 @@
         </is>
       </c>
       <c r="D40" s="27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E40" s="28" t="n">
-        <v>716.8</v>
-      </c>
-      <c r="F40" s="28" t="n">
-        <v>3583.98</v>
+        <v>723.59</v>
+      </c>
+      <c r="F40" s="28">
+        <f>D5*E5</f>
+        <v/>
       </c>
       <c r="G40" s="26" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H40" s="27" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="I40" s="27" t="n">
-        <v>21.66</v>
-      </c>
+      <c r="H40" s="27" t="n"/>
+      <c r="I40" s="27" t="n"/>
       <c r="J40" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="30">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/SUM(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/SUM(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L40" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M40" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N40" s="32">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O40" s="30">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/SUM(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/SUM(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P40" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R40" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S40" s="30">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/SUM(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/SUM(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T40" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U40" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V40" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W40" s="31" t="n"/>
       <c r="X40" s="31" t="n"/>
       <c r="Y40" s="30">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/SUM(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/SUM(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z40" s="31" t="n"/>
       <c r="AA40" s="31" t="n"/>
       <c r="AB40" s="32" t="n"/>
       <c r="AC40" s="33">
-        <f>IF(B6="DIV", F6,"")</f>
+        <f>IF(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD40" s="34" t="n"/>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="59">
       <c r="A41" s="25" t="n">
-        <v>45897</v>
+        <v>45903</v>
       </c>
       <c r="B41" s="26" t="inlineStr">
         <is>
@@ -2521,13 +2461,13 @@
         </is>
       </c>
       <c r="D41" s="27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E41" s="28" t="n">
-        <v>714.49</v>
+        <v>716.8</v>
       </c>
       <c r="F41" s="28" t="n">
-        <v>1428.97</v>
+        <v>3583.98</v>
       </c>
       <c r="G41" s="26" t="inlineStr">
         <is>
@@ -2535,85 +2475,85 @@
         </is>
       </c>
       <c r="H41" s="27" t="n">
-        <v>1.42</v>
+        <v>3.57</v>
       </c>
       <c r="I41" s="27" t="n">
-        <v>8.65</v>
+        <v>21.66</v>
       </c>
       <c r="J41" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/SUM(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L41" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M41" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N41" s="32">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O41" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/SUM(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P41" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R41" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S41" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/SUM(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T41" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U41" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V41" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W41" s="31" t="n"/>
       <c r="X41" s="31" t="n"/>
       <c r="Y41" s="30">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/SUM(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/SUM(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z41" s="31" t="n"/>
       <c r="AA41" s="31" t="n"/>
       <c r="AB41" s="32" t="n"/>
       <c r="AC41" s="33">
-        <f>IF(B7="DIV", F7,"")</f>
+        <f>IF(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD41" s="34" t="n"/>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="59">
       <c r="A42" s="25" t="n">
-        <v>45891</v>
+        <v>45897</v>
       </c>
       <c r="B42" s="26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C42" s="26" t="inlineStr">
@@ -2622,99 +2562,99 @@
         </is>
       </c>
       <c r="D42" s="27" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E42" s="28" t="n">
-        <v>1</v>
+        <v>714.49</v>
       </c>
       <c r="F42" s="28" t="n">
-        <v>60</v>
+        <v>1428.97</v>
       </c>
       <c r="G42" s="26" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.1.0000/- per share on Ex-Date: 22-AUG-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H42" s="27" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="I42" s="27" t="n">
-        <v>0</v>
+        <v>8.65</v>
       </c>
       <c r="J42" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L42" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M42" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N42" s="32">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O42" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P42" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R42" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S42" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T42" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U42" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V42" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W42" s="31" t="n"/>
       <c r="X42" s="31" t="n"/>
       <c r="Y42" s="30">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z42" s="31" t="n"/>
       <c r="AA42" s="31" t="n"/>
       <c r="AB42" s="32" t="n"/>
       <c r="AC42" s="33">
-        <f>IF(B8="DIV", F8,"")</f>
+        <f>IF(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD42" s="34" t="n"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="59">
       <c r="A43" s="25" t="n">
-        <v>45855</v>
+        <v>45891</v>
       </c>
       <c r="B43" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C43" s="26" t="inlineStr">
@@ -2723,95 +2663,95 @@
         </is>
       </c>
       <c r="D43" s="27" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E43" s="28" t="n">
-        <v>781.8</v>
+        <v>1</v>
       </c>
       <c r="F43" s="28" t="n">
-        <v>3909</v>
+        <v>60</v>
       </c>
       <c r="G43" s="26" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.1.0000/- per share on Ex-Date: 22-AUG-2025</t>
         </is>
       </c>
       <c r="H43" s="27" t="n">
-        <v>3.88</v>
+        <v>0</v>
       </c>
       <c r="I43" s="27" t="n">
-        <v>23.62</v>
+        <v>0</v>
       </c>
       <c r="J43" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L43" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M43" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N43" s="32">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O43" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P43" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R43" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S43" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T43" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U43" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V43" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W43" s="31" t="n"/>
       <c r="X43" s="31" t="n"/>
       <c r="Y43" s="30">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z43" s="31" t="n"/>
       <c r="AA43" s="31" t="n"/>
       <c r="AB43" s="32" t="n"/>
       <c r="AC43" s="33">
-        <f>IF(B9="DIV", F9,"")</f>
+        <f>IF(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD43" s="34" t="n"/>
     </row>
     <row r="44" ht="15.75" customHeight="1" s="59">
       <c r="A44" s="25" t="n">
-        <v>45820</v>
+        <v>45855</v>
       </c>
       <c r="B44" s="26" t="inlineStr">
         <is>
@@ -2827,10 +2767,10 @@
         <v>5</v>
       </c>
       <c r="E44" s="28" t="n">
-        <v>790.15</v>
+        <v>781.8</v>
       </c>
       <c r="F44" s="28" t="n">
-        <v>3950.75</v>
+        <v>3909</v>
       </c>
       <c r="G44" s="26" t="inlineStr">
         <is>
@@ -2838,81 +2778,81 @@
         </is>
       </c>
       <c r="H44" s="27" t="n">
-        <v>3.91</v>
+        <v>3.88</v>
       </c>
       <c r="I44" s="27" t="n">
-        <v>23.84</v>
+        <v>23.62</v>
       </c>
       <c r="J44" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L44" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M44" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N44" s="32">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O44" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P44" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R44" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S44" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T44" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U44" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V44" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W44" s="31" t="n"/>
       <c r="X44" s="31" t="n"/>
       <c r="Y44" s="30">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z44" s="31" t="n"/>
       <c r="AA44" s="31" t="n"/>
       <c r="AB44" s="32" t="n"/>
       <c r="AC44" s="33">
-        <f>IF(B10="DIV", F10,"")</f>
+        <f>IF(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD44" s="34" t="n"/>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="59">
       <c r="A45" s="25" t="n">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="B45" s="26" t="inlineStr">
         <is>
@@ -2925,13 +2865,13 @@
         </is>
       </c>
       <c r="D45" s="27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E45" s="28" t="n">
-        <v>776.91</v>
+        <v>790.15</v>
       </c>
       <c r="F45" s="28" t="n">
-        <v>1553.82</v>
+        <v>3950.75</v>
       </c>
       <c r="G45" s="26" t="inlineStr">
         <is>
@@ -2939,74 +2879,74 @@
         </is>
       </c>
       <c r="H45" s="27" t="n">
-        <v>1.54</v>
+        <v>3.91</v>
       </c>
       <c r="I45" s="27" t="n">
-        <v>9.380000000000001</v>
+        <v>23.84</v>
       </c>
       <c r="J45" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L45" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M45" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N45" s="32">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O45" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P45" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R45" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S45" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T45" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U45" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V45" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W45" s="31" t="n"/>
       <c r="X45" s="31" t="n"/>
       <c r="Y45" s="30">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z45" s="31" t="n"/>
       <c r="AA45" s="31" t="n"/>
       <c r="AB45" s="32" t="n"/>
       <c r="AC45" s="33">
-        <f>IF(B11="DIV", F11,"")</f>
+        <f>IF(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD45" s="34" t="n"/>
@@ -3026,13 +2966,13 @@
         </is>
       </c>
       <c r="D46" s="27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E46" s="28" t="n">
-        <v>776.92</v>
+        <v>776.91</v>
       </c>
       <c r="F46" s="28" t="n">
-        <v>3884.62</v>
+        <v>1553.82</v>
       </c>
       <c r="G46" s="26" t="inlineStr">
         <is>
@@ -3040,182 +2980,182 @@
         </is>
       </c>
       <c r="H46" s="27" t="n">
-        <v>3.86</v>
+        <v>1.54</v>
       </c>
       <c r="I46" s="27" t="n">
-        <v>23.51</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="J46" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L46" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M46" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N46" s="32">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O46" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P46" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R46" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S46" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T46" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U46" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V46" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W46" s="31" t="n"/>
       <c r="X46" s="31" t="n"/>
       <c r="Y46" s="30">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z46" s="31" t="n"/>
       <c r="AA46" s="31" t="n"/>
       <c r="AB46" s="32" t="n"/>
       <c r="AC46" s="33">
-        <f>IF(B12="DIV", F12,"")</f>
+        <f>IF(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD46" s="34" t="n"/>
     </row>
     <row r="47" ht="15.75" customHeight="1" s="59">
-      <c r="A47" s="35" t="n">
-        <v>45716</v>
-      </c>
-      <c r="B47" s="36" t="inlineStr">
+      <c r="A47" s="25" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B47" s="26" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C47" s="36" t="inlineStr">
+      <c r="C47" s="26" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D47" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="E47" s="38" t="n">
-        <v>680.1900000000001</v>
-      </c>
-      <c r="F47" s="38" t="n">
-        <v>2040.56</v>
-      </c>
-      <c r="G47" s="36" t="inlineStr">
+      <c r="D47" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" s="28" t="n">
+        <v>776.92</v>
+      </c>
+      <c r="F47" s="28" t="n">
+        <v>3884.62</v>
+      </c>
+      <c r="G47" s="26" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H47" s="37" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I47" s="37" t="n">
-        <v>12.34</v>
+      <c r="H47" s="27" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="I47" s="27" t="n">
+        <v>23.51</v>
       </c>
       <c r="J47" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L47" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M47" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N47" s="32">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O47" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P47" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R47" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S47" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T47" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U47" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V47" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W47" s="31" t="n"/>
       <c r="X47" s="31" t="n"/>
       <c r="Y47" s="30">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z47" s="31" t="n"/>
       <c r="AA47" s="31" t="n"/>
       <c r="AB47" s="32" t="n"/>
       <c r="AC47" s="33">
-        <f>IF(B13="DIV", F13,"")</f>
+        <f>IF(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD47" s="34" t="n"/>
     </row>
     <row r="48" ht="15.75" customHeight="1" s="59">
       <c r="A48" s="35" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B48" s="36" t="inlineStr">
         <is>
@@ -3228,13 +3168,13 @@
         </is>
       </c>
       <c r="D48" s="37" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E48" s="38" t="n">
-        <v>728.63</v>
+        <v>680.1900000000001</v>
       </c>
       <c r="F48" s="38" t="n">
-        <v>5100.4</v>
+        <v>2040.56</v>
       </c>
       <c r="G48" s="36" t="inlineStr">
         <is>
@@ -3242,74 +3182,74 @@
         </is>
       </c>
       <c r="H48" s="37" t="n">
-        <v>5.06</v>
+        <v>2.02</v>
       </c>
       <c r="I48" s="37" t="n">
-        <v>30.84</v>
+        <v>12.34</v>
       </c>
       <c r="J48" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L48" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M48" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N48" s="32">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O48" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P48" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R48" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S48" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T48" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U48" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V48" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W48" s="31" t="n"/>
       <c r="X48" s="31" t="n"/>
       <c r="Y48" s="30">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z48" s="31" t="n"/>
       <c r="AA48" s="31" t="n"/>
       <c r="AB48" s="32" t="n"/>
       <c r="AC48" s="33">
-        <f>IF(B14="DIV", F14,"")</f>
+        <f>IF(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD48" s="34" t="n"/>
@@ -3329,13 +3269,13 @@
         </is>
       </c>
       <c r="D49" s="37" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E49" s="38" t="n">
-        <v>728.64</v>
+        <v>728.63</v>
       </c>
       <c r="F49" s="38" t="n">
-        <v>2185.91</v>
+        <v>5100.4</v>
       </c>
       <c r="G49" s="36" t="inlineStr">
         <is>
@@ -3343,81 +3283,81 @@
         </is>
       </c>
       <c r="H49" s="37" t="n">
-        <v>2.17</v>
+        <v>5.06</v>
       </c>
       <c r="I49" s="37" t="n">
-        <v>13.24</v>
+        <v>30.84</v>
       </c>
       <c r="J49" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L49" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M49" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N49" s="32">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O49" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P49" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R49" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S49" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T49" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U49" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V49" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W49" s="31" t="n"/>
       <c r="X49" s="31" t="n"/>
       <c r="Y49" s="30">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z49" s="31" t="n"/>
       <c r="AA49" s="31" t="n"/>
       <c r="AB49" s="32" t="n"/>
       <c r="AC49" s="33">
-        <f>IF(B15="DIV", F15,"")</f>
+        <f>IF(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD49" s="34" t="n"/>
     </row>
     <row r="50" ht="15.75" customHeight="1" s="59">
       <c r="A50" s="35" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B50" s="36" t="inlineStr">
         <is>
@@ -3430,13 +3370,13 @@
         </is>
       </c>
       <c r="D50" s="37" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E50" s="38" t="n">
-        <v>730.14</v>
+        <v>728.64</v>
       </c>
       <c r="F50" s="38" t="n">
-        <v>14602.86</v>
+        <v>2185.91</v>
       </c>
       <c r="G50" s="36" t="inlineStr">
         <is>
@@ -3444,81 +3384,81 @@
         </is>
       </c>
       <c r="H50" s="37" t="n">
-        <v>14.48</v>
+        <v>2.17</v>
       </c>
       <c r="I50" s="37" t="n">
-        <v>88.38</v>
+        <v>13.24</v>
       </c>
       <c r="J50" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L50" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M50" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N50" s="32">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O50" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P50" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R50" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S50" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T50" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U50" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V50" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W50" s="31" t="n"/>
       <c r="X50" s="31" t="n"/>
       <c r="Y50" s="30">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z50" s="31" t="n"/>
       <c r="AA50" s="31" t="n"/>
       <c r="AB50" s="32" t="n"/>
       <c r="AC50" s="33">
-        <f>IF(B16="DIV", F16,"")</f>
+        <f>IF(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD50" s="34" t="n"/>
     </row>
     <row r="51" ht="15.75" customHeight="1" s="59">
       <c r="A51" s="35" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B51" s="36" t="inlineStr">
         <is>
@@ -3531,13 +3471,13 @@
         </is>
       </c>
       <c r="D51" s="37" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E51" s="38" t="n">
-        <v>763.17</v>
+        <v>730.14</v>
       </c>
       <c r="F51" s="38" t="n">
-        <v>1526.34</v>
+        <v>14602.86</v>
       </c>
       <c r="G51" s="36" t="inlineStr">
         <is>
@@ -3545,74 +3485,74 @@
         </is>
       </c>
       <c r="H51" s="37" t="n">
-        <v>1.52</v>
+        <v>14.48</v>
       </c>
       <c r="I51" s="37" t="n">
-        <v>9.220000000000001</v>
+        <v>88.38</v>
       </c>
       <c r="J51" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L51" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M51" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N51" s="32">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O51" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P51" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R51" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S51" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T51" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U51" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V51" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W51" s="31" t="n"/>
       <c r="X51" s="31" t="n"/>
       <c r="Y51" s="30">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z51" s="31" t="n"/>
       <c r="AA51" s="31" t="n"/>
       <c r="AB51" s="32" t="n"/>
       <c r="AC51" s="33">
-        <f>IF(B17="DIV", F17,"")</f>
+        <f>IF(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD51" s="34" t="n"/>
@@ -3632,13 +3572,13 @@
         </is>
       </c>
       <c r="D52" s="37" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E52" s="38" t="n">
         <v>763.17</v>
       </c>
       <c r="F52" s="38" t="n">
-        <v>6105.37</v>
+        <v>1526.34</v>
       </c>
       <c r="G52" s="36" t="inlineStr">
         <is>
@@ -3646,93 +3586,178 @@
         </is>
       </c>
       <c r="H52" s="37" t="n">
-        <v>6.06</v>
+        <v>1.52</v>
       </c>
       <c r="I52" s="37" t="n">
-        <v>36.91</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="J52" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L52" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M52" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N52" s="32">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O52" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P52" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R52" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S52" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T52" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U52" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V52" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W52" s="31" t="n"/>
       <c r="X52" s="31" t="n"/>
       <c r="Y52" s="30">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z52" s="31" t="n"/>
       <c r="AA52" s="31" t="n"/>
       <c r="AB52" s="32" t="n"/>
       <c r="AC52" s="33">
+        <f>IF(B17="DIV", F17,"")</f>
+        <v/>
+      </c>
+      <c r="AD52" s="34" t="n"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" s="59">
+      <c r="A53" s="35" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B53" s="36" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C53" s="36" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D53" s="37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E53" s="38" t="n">
+        <v>763.17</v>
+      </c>
+      <c r="F53" s="38" t="n">
+        <v>6105.37</v>
+      </c>
+      <c r="G53" s="36" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H53" s="37" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="I53" s="37" t="n">
+        <v>36.91</v>
+      </c>
+      <c r="J53" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K53" s="30">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="L53" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <v/>
+      </c>
+      <c r="M53" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <v/>
+      </c>
+      <c r="N53" s="32">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <v/>
+      </c>
+      <c r="O53" s="30">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="P53" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <v/>
+      </c>
+      <c r="Q53" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <v/>
+      </c>
+      <c r="R53" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <v/>
+      </c>
+      <c r="S53" s="30">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="T53" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <v/>
+      </c>
+      <c r="U53" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <v/>
+      </c>
+      <c r="V53" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <v/>
+      </c>
+      <c r="W53" s="31" t="n"/>
+      <c r="X53" s="31" t="n"/>
+      <c r="Y53" s="30">
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="Z53" s="31" t="n"/>
+      <c r="AA53" s="31" t="n"/>
+      <c r="AB53" s="32" t="n"/>
+      <c r="AC53" s="33">
         <f>IF(B18="DIV", F18,"")</f>
         <v/>
       </c>
-      <c r="AD52" s="34" t="n"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1" s="59">
-      <c r="E53" s="39" t="n"/>
-      <c r="F53" s="39" t="n"/>
-      <c r="G53" s="40" t="n"/>
-      <c r="J53" s="39" t="n"/>
-      <c r="K53" s="39" t="n"/>
-      <c r="L53" s="39" t="n"/>
-      <c r="M53" s="1" t="n"/>
-      <c r="W53" s="39" t="n"/>
-      <c r="X53" s="39" t="n"/>
-      <c r="Y53" s="39" t="n"/>
-      <c r="Z53" s="39" t="n"/>
-      <c r="AA53" s="39" t="n"/>
-      <c r="AB53" s="39" t="n"/>
-      <c r="AC53" s="39" t="n"/>
+      <c r="AD53" s="34" t="n"/>
     </row>
     <row r="54" ht="15.75" customHeight="1" s="59">
       <c r="E54" s="39" t="n"/>
@@ -18701,6 +18726,7 @@
       <c r="J989" s="39" t="n"/>
       <c r="K989" s="39" t="n"/>
       <c r="L989" s="39" t="n"/>
+      <c r="M989" s="1" t="n"/>
       <c r="W989" s="39" t="n"/>
       <c r="X989" s="39" t="n"/>
       <c r="Y989" s="39" t="n"/>
@@ -18948,6 +18974,21 @@
       <c r="AA1005" s="39" t="n"/>
       <c r="AB1005" s="39" t="n"/>
       <c r="AC1005" s="39" t="n"/>
+    </row>
+    <row r="1006">
+      <c r="E1006" s="39" t="n"/>
+      <c r="F1006" s="39" t="n"/>
+      <c r="G1006" s="40" t="n"/>
+      <c r="J1006" s="39" t="n"/>
+      <c r="K1006" s="39" t="n"/>
+      <c r="L1006" s="39" t="n"/>
+      <c r="W1006" s="39" t="n"/>
+      <c r="X1006" s="39" t="n"/>
+      <c r="Y1006" s="39" t="n"/>
+      <c r="Z1006" s="39" t="n"/>
+      <c r="AA1006" s="39" t="n"/>
+      <c r="AB1006" s="39" t="n"/>
+      <c r="AC1006" s="39" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO48"/>

--- a/dumps/Stocks/Indian Rail Tour Corp Ltd.xlsx
+++ b/dumps/Stocks/Indian Rail Tour Corp Ltd.xlsx
@@ -708,7 +708,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1006"/>
+  <dimension ref="A1:AP1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="59">
       <c r="A5" s="72" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1074,21 +1074,21 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>623.8</v>
+        <v>633.5</v>
       </c>
       <c r="F5" t="n">
-        <v>6282.21</v>
+        <v>6379.92</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6.23</v>
+        <v>6.33</v>
       </c>
       <c r="I5" t="n">
-        <v>37.98</v>
+        <v>38.59</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1096,8 +1096,8 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="59">
-      <c r="A6" s="71" t="n">
-        <v>46057</v>
+      <c r="A6" s="72" t="n">
+        <v>46062</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1113,26 +1113,30 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>617.5</v>
+        <v>623.8</v>
       </c>
       <c r="F6" t="n">
-        <v>6218.91</v>
+        <v>6282.21</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6.2</v>
+        <v>6.23</v>
       </c>
       <c r="I6" t="n">
-        <v>37.71</v>
+        <v>37.98</v>
+      </c>
+      <c r="J6">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="59">
       <c r="A7" s="71" t="n">
-        <v>46050</v>
+        <v>46057</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1145,13 +1149,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>617.8</v>
+        <v>617.5</v>
       </c>
       <c r="F7" t="n">
-        <v>3110.92</v>
+        <v>6218.91</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1159,15 +1163,15 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3.11</v>
+        <v>6.2</v>
       </c>
       <c r="I7" t="n">
-        <v>18.81</v>
+        <v>37.71</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="59">
       <c r="A8" s="71" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1180,13 +1184,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>614.4</v>
+        <v>617.8</v>
       </c>
       <c r="F8" t="n">
-        <v>6187.54</v>
+        <v>3110.92</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1194,15 +1198,15 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6.14</v>
+        <v>3.11</v>
       </c>
       <c r="I8" t="n">
-        <v>37.4</v>
+        <v>18.81</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="59">
       <c r="A9" s="71" t="n">
-        <v>46038</v>
+        <v>46049</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1215,13 +1219,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>631.5</v>
+        <v>614.4</v>
       </c>
       <c r="F9" t="n">
-        <v>2543.93</v>
+        <v>6187.54</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1229,10 +1233,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2.53</v>
+        <v>6.14</v>
       </c>
       <c r="I9" t="n">
-        <v>15.4</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="59">
@@ -1250,13 +1254,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
         <v>631.5</v>
       </c>
       <c r="F10" t="n">
-        <v>635.96</v>
+        <v>2543.93</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1264,15 +1268,15 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.63</v>
+        <v>2.53</v>
       </c>
       <c r="I10" t="n">
-        <v>3.83</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="59">
       <c r="A11" s="71" t="n">
-        <v>46034</v>
+        <v>46038</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1285,13 +1289,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>637.3</v>
+        <v>631.5</v>
       </c>
       <c r="F11" t="n">
-        <v>3209.13</v>
+        <v>635.96</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1299,15 +1303,15 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>0.63</v>
       </c>
       <c r="I11" t="n">
-        <v>19.43</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="59">
       <c r="A12" s="71" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1320,13 +1324,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>655.75</v>
+        <v>637.3</v>
       </c>
       <c r="F12" t="n">
-        <v>1981.2</v>
+        <v>3209.13</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1334,10 +1338,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1.96</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>11.99</v>
+        <v>19.43</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="59">
@@ -1355,13 +1359,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
         <v>655.75</v>
       </c>
       <c r="F13" t="n">
-        <v>1320.78</v>
+        <v>1981.2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1369,15 +1373,15 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.3</v>
+        <v>1.96</v>
       </c>
       <c r="I13" t="n">
-        <v>7.98</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="59">
       <c r="A14" s="71" t="n">
-        <v>46017</v>
+        <v>46030</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1390,13 +1394,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>689.85</v>
+        <v>655.75</v>
       </c>
       <c r="F14" t="n">
-        <v>2084.24</v>
+        <v>1320.78</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1404,10 +1408,10 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2.08</v>
+        <v>1.3</v>
       </c>
       <c r="I14" t="n">
-        <v>12.61</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="59">
@@ -1425,13 +1429,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>689.75</v>
+        <v>689.85</v>
       </c>
       <c r="F15" t="n">
-        <v>1389.27</v>
+        <v>2084.24</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1439,15 +1443,15 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.38</v>
+        <v>2.08</v>
       </c>
       <c r="I15" t="n">
-        <v>8.390000000000001</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="59">
       <c r="A16" s="71" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1460,13 +1464,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>681.7</v>
+        <v>689.75</v>
       </c>
       <c r="F16" t="n">
-        <v>3432.64</v>
+        <v>1389.27</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1474,15 +1478,15 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3.39</v>
+        <v>1.38</v>
       </c>
       <c r="I16" t="n">
-        <v>20.75</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="59">
       <c r="A17" s="71" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1498,10 +1502,10 @@
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>683.75</v>
+        <v>681.7</v>
       </c>
       <c r="F17" t="n">
-        <v>3442.95</v>
+        <v>3432.64</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1509,19 +1513,19 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.39</v>
       </c>
       <c r="I17" t="n">
-        <v>20.8</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="59">
       <c r="A18" s="71" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1533,10 +1537,10 @@
         <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>662.7</v>
+        <v>683.75</v>
       </c>
       <c r="F18" t="n">
-        <v>3336.98</v>
+        <v>3442.95</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1544,19 +1548,19 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>20.16</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="59">
       <c r="A19" s="71" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1565,13 +1569,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>667.35</v>
+        <v>662.7</v>
       </c>
       <c r="F19" t="n">
-        <v>6720.84</v>
+        <v>3336.98</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1579,19 +1583,19 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6.71</v>
+        <v>3.32</v>
       </c>
       <c r="I19" t="n">
-        <v>40.63</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="59">
       <c r="A20" s="71" t="n">
-        <v>46002</v>
+        <v>46008</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1600,13 +1604,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>667.85</v>
+        <v>667.35</v>
       </c>
       <c r="F20" t="n">
-        <v>3362.94</v>
+        <v>6720.84</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1614,19 +1618,19 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3.35</v>
+        <v>6.71</v>
       </c>
       <c r="I20" t="n">
-        <v>20.34</v>
+        <v>40.63</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="59">
       <c r="A21" s="71" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1635,13 +1639,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>671.15</v>
+        <v>667.85</v>
       </c>
       <c r="F21" t="n">
-        <v>6759.12</v>
+        <v>3362.94</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1649,19 +1653,19 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6.68</v>
+        <v>3.35</v>
       </c>
       <c r="I21" t="n">
-        <v>40.94</v>
+        <v>20.34</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="59">
       <c r="A22" s="71" t="n">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1670,13 +1674,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>682.3</v>
+        <v>671.15</v>
       </c>
       <c r="F22" t="n">
-        <v>3435.69</v>
+        <v>6759.12</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1684,15 +1688,15 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3.43</v>
+        <v>6.68</v>
       </c>
       <c r="I22" t="n">
-        <v>20.76</v>
+        <v>40.94</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="59">
       <c r="A23" s="71" t="n">
-        <v>45988</v>
+        <v>45993</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1705,13 +1709,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>692.95</v>
+        <v>682.3</v>
       </c>
       <c r="F23" t="n">
-        <v>2093.57</v>
+        <v>3435.69</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1719,10 +1723,10 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2.07</v>
+        <v>3.43</v>
       </c>
       <c r="I23" t="n">
-        <v>12.65</v>
+        <v>20.76</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="59">
@@ -1740,13 +1744,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>693</v>
+        <v>692.95</v>
       </c>
       <c r="F24" t="n">
-        <v>1395.81</v>
+        <v>2093.57</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1754,19 +1758,19 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1.37</v>
+        <v>2.07</v>
       </c>
       <c r="I24" t="n">
-        <v>8.44</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="59">
       <c r="A25" s="71" t="n">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1775,24 +1779,24 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>693</v>
       </c>
       <c r="F25" t="n">
-        <v>575</v>
+        <v>1395.81</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.5.0000/- per share on Ex-Date: 21-NOV-2025  Interim-Dividend of Rs.5.0000/- per share on Ex-Date: 21-NOV-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="59">
@@ -1801,7 +1805,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1810,24 +1814,24 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="E26" t="n">
-        <v>695</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>1399.86</v>
+        <v>575</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.5.0000/- per share on Ex-Date: 21-NOV-2025  Interim-Dividend of Rs.5.0000/- per share on Ex-Date: 21-NOV-2025</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>8.470000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="59">
@@ -1845,13 +1849,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
         <v>695</v>
       </c>
       <c r="F27" t="n">
-        <v>2099.81</v>
+        <v>1399.86</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1859,19 +1863,19 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>2.09</v>
+        <v>1.39</v>
       </c>
       <c r="I27" t="n">
-        <v>12.72</v>
+        <v>8.470000000000001</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="59">
       <c r="A28" s="71" t="n">
-        <v>45978</v>
+        <v>45982</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1880,13 +1884,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="F28" t="n">
-        <v>3600.39</v>
+        <v>2099.81</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1894,15 +1898,15 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>3.59</v>
+        <v>2.09</v>
       </c>
       <c r="I28" t="n">
-        <v>21.8</v>
+        <v>12.72</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="59">
       <c r="A29" s="71" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1918,10 +1922,10 @@
         <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>703.8</v>
+        <v>715</v>
       </c>
       <c r="F29" t="n">
-        <v>3543.96</v>
+        <v>3600.39</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1929,19 +1933,19 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3.53</v>
+        <v>3.59</v>
       </c>
       <c r="I29" t="n">
-        <v>21.43</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="59">
       <c r="A30" s="71" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1953,10 +1957,10 @@
         <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>710.5</v>
+        <v>703.8</v>
       </c>
       <c r="F30" t="n">
-        <v>3577.65</v>
+        <v>3543.96</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1967,12 +1971,12 @@
         <v>3.53</v>
       </c>
       <c r="I30" t="n">
-        <v>21.62</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="59">
       <c r="A31" s="71" t="n">
-        <v>45968</v>
+        <v>45974</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1988,10 +1992,10 @@
         <v>5</v>
       </c>
       <c r="E31" t="n">
-        <v>700.95</v>
+        <v>710.5</v>
       </c>
       <c r="F31" t="n">
-        <v>3529.58</v>
+        <v>3577.65</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1999,15 +2003,15 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="I31" t="n">
-        <v>21.33</v>
+        <v>21.62</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="59">
       <c r="A32" s="71" t="n">
-        <v>45959</v>
+        <v>45968</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2023,10 +2027,10 @@
         <v>5</v>
       </c>
       <c r="E32" t="n">
-        <v>725.15</v>
+        <v>700.95</v>
       </c>
       <c r="F32" t="n">
-        <v>3651.44</v>
+        <v>3529.58</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2034,15 +2038,15 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>3.62</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>22.07</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="59">
       <c r="A33" s="71" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2058,10 +2062,10 @@
         <v>5</v>
       </c>
       <c r="E33" t="n">
-        <v>722.4</v>
+        <v>725.15</v>
       </c>
       <c r="F33" t="n">
-        <v>3637.58</v>
+        <v>3651.44</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2072,12 +2076,12 @@
         <v>3.62</v>
       </c>
       <c r="I33" t="n">
-        <v>21.96</v>
+        <v>22.07</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="59">
       <c r="A34" s="71" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2093,10 +2097,10 @@
         <v>5</v>
       </c>
       <c r="E34" t="n">
-        <v>721</v>
+        <v>722.4</v>
       </c>
       <c r="F34" t="n">
-        <v>3630.57</v>
+        <v>3637.58</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2104,7 +2108,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="I34" t="n">
         <v>21.96</v>
@@ -2112,11 +2116,11 @@
     </row>
     <row r="35" ht="15.75" customHeight="1" s="59">
       <c r="A35" s="71" t="n">
-        <v>45950</v>
+        <v>45954</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2128,10 +2132,10 @@
         <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>726.7</v>
+        <v>721</v>
       </c>
       <c r="F35" t="n">
-        <v>3659.25</v>
+        <v>3630.57</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2139,19 +2143,19 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>3.63</v>
+        <v>3.61</v>
       </c>
       <c r="I35" t="n">
-        <v>22.12</v>
+        <v>21.96</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="59">
       <c r="A36" s="71" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2160,13 +2164,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>718.5</v>
+        <v>726.7</v>
       </c>
       <c r="F36" t="n">
-        <v>5788.72</v>
+        <v>3659.25</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2174,15 +2178,15 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>5.76</v>
+        <v>3.63</v>
       </c>
       <c r="I36" t="n">
-        <v>34.96</v>
+        <v>22.12</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="59">
       <c r="A37" s="71" t="n">
-        <v>45903</v>
+        <v>45947</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2195,13 +2199,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E37" t="n">
-        <v>711.75</v>
+        <v>718.5</v>
       </c>
       <c r="F37" t="n">
-        <v>3583.98</v>
+        <v>5788.72</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2209,15 +2213,15 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>3.57</v>
+        <v>5.76</v>
       </c>
       <c r="I37" t="n">
-        <v>21.66</v>
+        <v>34.96</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="59">
       <c r="A38" s="71" t="n">
-        <v>45897</v>
+        <v>45903</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2230,13 +2234,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E38" t="n">
-        <v>709.45</v>
+        <v>711.75</v>
       </c>
       <c r="F38" t="n">
-        <v>1428.97</v>
+        <v>3583.98</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2244,113 +2248,50 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1.42</v>
+        <v>3.57</v>
       </c>
       <c r="I38" t="n">
-        <v>8.65</v>
+        <v>21.66</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="59">
-      <c r="A39" s="25" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B39" s="26" t="inlineStr">
+      <c r="A39" s="71" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C39" s="26" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D39" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="E39" s="28" t="n">
-        <v>731.85</v>
-      </c>
-      <c r="F39" s="28">
-        <f>#REF!*#REF!</f>
-        <v/>
-      </c>
-      <c r="G39" s="26" t="inlineStr">
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>709.45</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1428.97</v>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H39" s="27" t="n"/>
-      <c r="I39" s="27" t="n"/>
-      <c r="J39" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K39" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="L39" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
-        <v/>
-      </c>
-      <c r="M39" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="N39" s="32">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
-        <v/>
-      </c>
-      <c r="O39" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="P39" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
-        <v/>
-      </c>
-      <c r="Q39" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="R39" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
-        <v/>
-      </c>
-      <c r="S39" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="T39" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
-        <v/>
-      </c>
-      <c r="U39" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="V39" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
-        <v/>
-      </c>
-      <c r="W39" s="31" t="n"/>
-      <c r="X39" s="31" t="n"/>
-      <c r="Y39" s="30">
-        <f>IF(AND(#REF!= "Buy",#REF!&lt;&gt; "",#REF!&lt;&gt; "",#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="Z39" s="31" t="n"/>
-      <c r="AA39" s="31" t="n"/>
-      <c r="AB39" s="32" t="n"/>
-      <c r="AC39" s="33">
-        <f>IF(#REF!="DIV",#REF!, "")</f>
-        <v/>
-      </c>
-      <c r="AD39" s="34" t="n"/>
+      <c r="H39" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I39" t="n">
+        <v>8.65</v>
+      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="59">
       <c r="A40" s="25" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B40" s="26" t="inlineStr">
         <is>
@@ -2363,13 +2304,13 @@
         </is>
       </c>
       <c r="D40" s="27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E40" s="28" t="n">
-        <v>723.59</v>
+        <v>731.85</v>
       </c>
       <c r="F40" s="28">
-        <f>D5*E5</f>
+        <f>#REF!*#REF!</f>
         <v/>
       </c>
       <c r="G40" s="26" t="inlineStr">
@@ -2384,71 +2325,71 @@
         <v/>
       </c>
       <c r="K40" s="30">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/SUM(F5:I5), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="L40" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="M40" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="N40" s="32">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
         <v/>
       </c>
       <c r="O40" s="30">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/SUM(F5:I5), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="P40" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="R40" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
         <v/>
       </c>
       <c r="S40" s="30">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/SUM(F5:I5), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="T40" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="U40" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="V40" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
       <c r="W40" s="31" t="n"/>
       <c r="X40" s="31" t="n"/>
       <c r="Y40" s="30">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/SUM(F5:I5), "")</f>
+        <f>IF(AND(#REF!= "Buy",#REF!&lt;&gt; "",#REF!&lt;&gt; "",#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="Z40" s="31" t="n"/>
       <c r="AA40" s="31" t="n"/>
       <c r="AB40" s="32" t="n"/>
       <c r="AC40" s="33">
-        <f>IF(B5="DIV", F5,"")</f>
+        <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD40" s="34" t="n"/>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="59">
       <c r="A41" s="25" t="n">
-        <v>45903</v>
+        <v>45947</v>
       </c>
       <c r="B41" s="26" t="inlineStr">
         <is>
@@ -2461,95 +2402,92 @@
         </is>
       </c>
       <c r="D41" s="27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E41" s="28" t="n">
-        <v>716.8</v>
-      </c>
-      <c r="F41" s="28" t="n">
-        <v>3583.98</v>
+        <v>723.59</v>
+      </c>
+      <c r="F41" s="28">
+        <f>D5*E5</f>
+        <v/>
       </c>
       <c r="G41" s="26" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H41" s="27" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="I41" s="27" t="n">
-        <v>21.66</v>
-      </c>
+      <c r="H41" s="27" t="n"/>
+      <c r="I41" s="27" t="n"/>
       <c r="J41" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="30">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/SUM(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/SUM(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L41" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M41" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N41" s="32">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O41" s="30">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/SUM(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/SUM(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P41" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R41" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S41" s="30">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/SUM(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/SUM(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T41" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U41" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V41" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W41" s="31" t="n"/>
       <c r="X41" s="31" t="n"/>
       <c r="Y41" s="30">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/SUM(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/SUM(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z41" s="31" t="n"/>
       <c r="AA41" s="31" t="n"/>
       <c r="AB41" s="32" t="n"/>
       <c r="AC41" s="33">
-        <f>IF(B6="DIV", F6,"")</f>
+        <f>IF(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD41" s="34" t="n"/>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="59">
       <c r="A42" s="25" t="n">
-        <v>45897</v>
+        <v>45903</v>
       </c>
       <c r="B42" s="26" t="inlineStr">
         <is>
@@ -2562,13 +2500,13 @@
         </is>
       </c>
       <c r="D42" s="27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E42" s="28" t="n">
-        <v>714.49</v>
+        <v>716.8</v>
       </c>
       <c r="F42" s="28" t="n">
-        <v>1428.97</v>
+        <v>3583.98</v>
       </c>
       <c r="G42" s="26" t="inlineStr">
         <is>
@@ -2576,85 +2514,85 @@
         </is>
       </c>
       <c r="H42" s="27" t="n">
-        <v>1.42</v>
+        <v>3.57</v>
       </c>
       <c r="I42" s="27" t="n">
-        <v>8.65</v>
+        <v>21.66</v>
       </c>
       <c r="J42" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/SUM(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L42" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M42" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N42" s="32">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O42" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/SUM(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P42" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R42" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S42" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/SUM(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T42" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U42" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V42" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W42" s="31" t="n"/>
       <c r="X42" s="31" t="n"/>
       <c r="Y42" s="30">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/SUM(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/SUM(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z42" s="31" t="n"/>
       <c r="AA42" s="31" t="n"/>
       <c r="AB42" s="32" t="n"/>
       <c r="AC42" s="33">
-        <f>IF(B7="DIV", F7,"")</f>
+        <f>IF(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD42" s="34" t="n"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="59">
       <c r="A43" s="25" t="n">
-        <v>45891</v>
+        <v>45897</v>
       </c>
       <c r="B43" s="26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C43" s="26" t="inlineStr">
@@ -2663,99 +2601,99 @@
         </is>
       </c>
       <c r="D43" s="27" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E43" s="28" t="n">
-        <v>1</v>
+        <v>714.49</v>
       </c>
       <c r="F43" s="28" t="n">
-        <v>60</v>
+        <v>1428.97</v>
       </c>
       <c r="G43" s="26" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.1.0000/- per share on Ex-Date: 22-AUG-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H43" s="27" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="I43" s="27" t="n">
-        <v>0</v>
+        <v>8.65</v>
       </c>
       <c r="J43" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L43" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M43" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N43" s="32">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O43" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P43" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R43" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S43" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T43" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U43" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V43" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W43" s="31" t="n"/>
       <c r="X43" s="31" t="n"/>
       <c r="Y43" s="30">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z43" s="31" t="n"/>
       <c r="AA43" s="31" t="n"/>
       <c r="AB43" s="32" t="n"/>
       <c r="AC43" s="33">
-        <f>IF(B8="DIV", F8,"")</f>
+        <f>IF(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD43" s="34" t="n"/>
     </row>
     <row r="44" ht="15.75" customHeight="1" s="59">
       <c r="A44" s="25" t="n">
-        <v>45855</v>
+        <v>45891</v>
       </c>
       <c r="B44" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C44" s="26" t="inlineStr">
@@ -2764,95 +2702,95 @@
         </is>
       </c>
       <c r="D44" s="27" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E44" s="28" t="n">
-        <v>781.8</v>
+        <v>1</v>
       </c>
       <c r="F44" s="28" t="n">
-        <v>3909</v>
+        <v>60</v>
       </c>
       <c r="G44" s="26" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.1.0000/- per share on Ex-Date: 22-AUG-2025</t>
         </is>
       </c>
       <c r="H44" s="27" t="n">
-        <v>3.88</v>
+        <v>0</v>
       </c>
       <c r="I44" s="27" t="n">
-        <v>23.62</v>
+        <v>0</v>
       </c>
       <c r="J44" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L44" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M44" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N44" s="32">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O44" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P44" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R44" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S44" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T44" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U44" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V44" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W44" s="31" t="n"/>
       <c r="X44" s="31" t="n"/>
       <c r="Y44" s="30">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z44" s="31" t="n"/>
       <c r="AA44" s="31" t="n"/>
       <c r="AB44" s="32" t="n"/>
       <c r="AC44" s="33">
-        <f>IF(B9="DIV", F9,"")</f>
+        <f>IF(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD44" s="34" t="n"/>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="59">
       <c r="A45" s="25" t="n">
-        <v>45820</v>
+        <v>45855</v>
       </c>
       <c r="B45" s="26" t="inlineStr">
         <is>
@@ -2868,10 +2806,10 @@
         <v>5</v>
       </c>
       <c r="E45" s="28" t="n">
-        <v>790.15</v>
+        <v>781.8</v>
       </c>
       <c r="F45" s="28" t="n">
-        <v>3950.75</v>
+        <v>3909</v>
       </c>
       <c r="G45" s="26" t="inlineStr">
         <is>
@@ -2879,81 +2817,81 @@
         </is>
       </c>
       <c r="H45" s="27" t="n">
-        <v>3.91</v>
+        <v>3.88</v>
       </c>
       <c r="I45" s="27" t="n">
-        <v>23.84</v>
+        <v>23.62</v>
       </c>
       <c r="J45" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L45" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M45" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N45" s="32">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O45" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P45" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R45" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S45" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T45" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U45" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V45" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W45" s="31" t="n"/>
       <c r="X45" s="31" t="n"/>
       <c r="Y45" s="30">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z45" s="31" t="n"/>
       <c r="AA45" s="31" t="n"/>
       <c r="AB45" s="32" t="n"/>
       <c r="AC45" s="33">
-        <f>IF(B10="DIV", F10,"")</f>
+        <f>IF(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD45" s="34" t="n"/>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="59">
       <c r="A46" s="25" t="n">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="B46" s="26" t="inlineStr">
         <is>
@@ -2966,13 +2904,13 @@
         </is>
       </c>
       <c r="D46" s="27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E46" s="28" t="n">
-        <v>776.91</v>
+        <v>790.15</v>
       </c>
       <c r="F46" s="28" t="n">
-        <v>1553.82</v>
+        <v>3950.75</v>
       </c>
       <c r="G46" s="26" t="inlineStr">
         <is>
@@ -2980,74 +2918,74 @@
         </is>
       </c>
       <c r="H46" s="27" t="n">
-        <v>1.54</v>
+        <v>3.91</v>
       </c>
       <c r="I46" s="27" t="n">
-        <v>9.380000000000001</v>
+        <v>23.84</v>
       </c>
       <c r="J46" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L46" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M46" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N46" s="32">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O46" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P46" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R46" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S46" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T46" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U46" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V46" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W46" s="31" t="n"/>
       <c r="X46" s="31" t="n"/>
       <c r="Y46" s="30">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z46" s="31" t="n"/>
       <c r="AA46" s="31" t="n"/>
       <c r="AB46" s="32" t="n"/>
       <c r="AC46" s="33">
-        <f>IF(B11="DIV", F11,"")</f>
+        <f>IF(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD46" s="34" t="n"/>
@@ -3067,13 +3005,13 @@
         </is>
       </c>
       <c r="D47" s="27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E47" s="28" t="n">
-        <v>776.92</v>
+        <v>776.91</v>
       </c>
       <c r="F47" s="28" t="n">
-        <v>3884.62</v>
+        <v>1553.82</v>
       </c>
       <c r="G47" s="26" t="inlineStr">
         <is>
@@ -3081,182 +3019,182 @@
         </is>
       </c>
       <c r="H47" s="27" t="n">
-        <v>3.86</v>
+        <v>1.54</v>
       </c>
       <c r="I47" s="27" t="n">
-        <v>23.51</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="J47" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L47" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M47" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N47" s="32">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O47" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P47" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R47" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S47" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T47" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U47" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V47" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W47" s="31" t="n"/>
       <c r="X47" s="31" t="n"/>
       <c r="Y47" s="30">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z47" s="31" t="n"/>
       <c r="AA47" s="31" t="n"/>
       <c r="AB47" s="32" t="n"/>
       <c r="AC47" s="33">
-        <f>IF(B12="DIV", F12,"")</f>
+        <f>IF(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD47" s="34" t="n"/>
     </row>
     <row r="48" ht="15.75" customHeight="1" s="59">
-      <c r="A48" s="35" t="n">
-        <v>45716</v>
-      </c>
-      <c r="B48" s="36" t="inlineStr">
+      <c r="A48" s="25" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B48" s="26" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C48" s="36" t="inlineStr">
+      <c r="C48" s="26" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D48" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="E48" s="38" t="n">
-        <v>680.1900000000001</v>
-      </c>
-      <c r="F48" s="38" t="n">
-        <v>2040.56</v>
-      </c>
-      <c r="G48" s="36" t="inlineStr">
+      <c r="D48" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" s="28" t="n">
+        <v>776.92</v>
+      </c>
+      <c r="F48" s="28" t="n">
+        <v>3884.62</v>
+      </c>
+      <c r="G48" s="26" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H48" s="37" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I48" s="37" t="n">
-        <v>12.34</v>
+      <c r="H48" s="27" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="I48" s="27" t="n">
+        <v>23.51</v>
       </c>
       <c r="J48" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L48" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M48" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N48" s="32">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O48" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P48" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R48" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S48" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T48" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U48" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V48" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W48" s="31" t="n"/>
       <c r="X48" s="31" t="n"/>
       <c r="Y48" s="30">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z48" s="31" t="n"/>
       <c r="AA48" s="31" t="n"/>
       <c r="AB48" s="32" t="n"/>
       <c r="AC48" s="33">
-        <f>IF(B13="DIV", F13,"")</f>
+        <f>IF(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD48" s="34" t="n"/>
     </row>
     <row r="49" ht="15.75" customHeight="1" s="59">
       <c r="A49" s="35" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B49" s="36" t="inlineStr">
         <is>
@@ -3269,13 +3207,13 @@
         </is>
       </c>
       <c r="D49" s="37" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E49" s="38" t="n">
-        <v>728.63</v>
+        <v>680.1900000000001</v>
       </c>
       <c r="F49" s="38" t="n">
-        <v>5100.4</v>
+        <v>2040.56</v>
       </c>
       <c r="G49" s="36" t="inlineStr">
         <is>
@@ -3283,74 +3221,74 @@
         </is>
       </c>
       <c r="H49" s="37" t="n">
-        <v>5.06</v>
+        <v>2.02</v>
       </c>
       <c r="I49" s="37" t="n">
-        <v>30.84</v>
+        <v>12.34</v>
       </c>
       <c r="J49" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L49" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M49" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N49" s="32">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O49" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P49" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R49" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S49" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T49" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U49" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V49" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W49" s="31" t="n"/>
       <c r="X49" s="31" t="n"/>
       <c r="Y49" s="30">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z49" s="31" t="n"/>
       <c r="AA49" s="31" t="n"/>
       <c r="AB49" s="32" t="n"/>
       <c r="AC49" s="33">
-        <f>IF(B14="DIV", F14,"")</f>
+        <f>IF(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD49" s="34" t="n"/>
@@ -3370,13 +3308,13 @@
         </is>
       </c>
       <c r="D50" s="37" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E50" s="38" t="n">
-        <v>728.64</v>
+        <v>728.63</v>
       </c>
       <c r="F50" s="38" t="n">
-        <v>2185.91</v>
+        <v>5100.4</v>
       </c>
       <c r="G50" s="36" t="inlineStr">
         <is>
@@ -3384,81 +3322,81 @@
         </is>
       </c>
       <c r="H50" s="37" t="n">
-        <v>2.17</v>
+        <v>5.06</v>
       </c>
       <c r="I50" s="37" t="n">
-        <v>13.24</v>
+        <v>30.84</v>
       </c>
       <c r="J50" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L50" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M50" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N50" s="32">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O50" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P50" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R50" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S50" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T50" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U50" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V50" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W50" s="31" t="n"/>
       <c r="X50" s="31" t="n"/>
       <c r="Y50" s="30">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z50" s="31" t="n"/>
       <c r="AA50" s="31" t="n"/>
       <c r="AB50" s="32" t="n"/>
       <c r="AC50" s="33">
-        <f>IF(B15="DIV", F15,"")</f>
+        <f>IF(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD50" s="34" t="n"/>
     </row>
     <row r="51" ht="15.75" customHeight="1" s="59">
       <c r="A51" s="35" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B51" s="36" t="inlineStr">
         <is>
@@ -3471,13 +3409,13 @@
         </is>
       </c>
       <c r="D51" s="37" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E51" s="38" t="n">
-        <v>730.14</v>
+        <v>728.64</v>
       </c>
       <c r="F51" s="38" t="n">
-        <v>14602.86</v>
+        <v>2185.91</v>
       </c>
       <c r="G51" s="36" t="inlineStr">
         <is>
@@ -3485,81 +3423,81 @@
         </is>
       </c>
       <c r="H51" s="37" t="n">
-        <v>14.48</v>
+        <v>2.17</v>
       </c>
       <c r="I51" s="37" t="n">
-        <v>88.38</v>
+        <v>13.24</v>
       </c>
       <c r="J51" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L51" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M51" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N51" s="32">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O51" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P51" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R51" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S51" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T51" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U51" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V51" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W51" s="31" t="n"/>
       <c r="X51" s="31" t="n"/>
       <c r="Y51" s="30">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z51" s="31" t="n"/>
       <c r="AA51" s="31" t="n"/>
       <c r="AB51" s="32" t="n"/>
       <c r="AC51" s="33">
-        <f>IF(B16="DIV", F16,"")</f>
+        <f>IF(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD51" s="34" t="n"/>
     </row>
     <row r="52" ht="15.75" customHeight="1" s="59">
       <c r="A52" s="35" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B52" s="36" t="inlineStr">
         <is>
@@ -3572,13 +3510,13 @@
         </is>
       </c>
       <c r="D52" s="37" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E52" s="38" t="n">
-        <v>763.17</v>
+        <v>730.14</v>
       </c>
       <c r="F52" s="38" t="n">
-        <v>1526.34</v>
+        <v>14602.86</v>
       </c>
       <c r="G52" s="36" t="inlineStr">
         <is>
@@ -3586,74 +3524,74 @@
         </is>
       </c>
       <c r="H52" s="37" t="n">
-        <v>1.52</v>
+        <v>14.48</v>
       </c>
       <c r="I52" s="37" t="n">
-        <v>9.220000000000001</v>
+        <v>88.38</v>
       </c>
       <c r="J52" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L52" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M52" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N52" s="32">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O52" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P52" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R52" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S52" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T52" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U52" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V52" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W52" s="31" t="n"/>
       <c r="X52" s="31" t="n"/>
       <c r="Y52" s="30">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z52" s="31" t="n"/>
       <c r="AA52" s="31" t="n"/>
       <c r="AB52" s="32" t="n"/>
       <c r="AC52" s="33">
-        <f>IF(B17="DIV", F17,"")</f>
+        <f>IF(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD52" s="34" t="n"/>
@@ -3673,13 +3611,13 @@
         </is>
       </c>
       <c r="D53" s="37" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E53" s="38" t="n">
         <v>763.17</v>
       </c>
       <c r="F53" s="38" t="n">
-        <v>6105.37</v>
+        <v>1526.34</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -3687,93 +3625,178 @@
         </is>
       </c>
       <c r="H53" s="37" t="n">
-        <v>6.06</v>
+        <v>1.52</v>
       </c>
       <c r="I53" s="37" t="n">
-        <v>36.91</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="J53" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L53" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M53" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N53" s="32">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O53" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P53" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R53" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S53" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T53" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U53" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V53" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W53" s="31" t="n"/>
       <c r="X53" s="31" t="n"/>
       <c r="Y53" s="30">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z53" s="31" t="n"/>
       <c r="AA53" s="31" t="n"/>
       <c r="AB53" s="32" t="n"/>
       <c r="AC53" s="33">
+        <f>IF(B17="DIV", F17,"")</f>
+        <v/>
+      </c>
+      <c r="AD53" s="34" t="n"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1" s="59">
+      <c r="A54" s="35" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B54" s="36" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C54" s="36" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D54" s="37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E54" s="38" t="n">
+        <v>763.17</v>
+      </c>
+      <c r="F54" s="38" t="n">
+        <v>6105.37</v>
+      </c>
+      <c r="G54" s="36" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H54" s="37" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="I54" s="37" t="n">
+        <v>36.91</v>
+      </c>
+      <c r="J54" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K54" s="30">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="L54" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <v/>
+      </c>
+      <c r="M54" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <v/>
+      </c>
+      <c r="N54" s="32">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <v/>
+      </c>
+      <c r="O54" s="30">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="P54" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <v/>
+      </c>
+      <c r="Q54" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <v/>
+      </c>
+      <c r="R54" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <v/>
+      </c>
+      <c r="S54" s="30">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="T54" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <v/>
+      </c>
+      <c r="U54" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <v/>
+      </c>
+      <c r="V54" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <v/>
+      </c>
+      <c r="W54" s="31" t="n"/>
+      <c r="X54" s="31" t="n"/>
+      <c r="Y54" s="30">
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="Z54" s="31" t="n"/>
+      <c r="AA54" s="31" t="n"/>
+      <c r="AB54" s="32" t="n"/>
+      <c r="AC54" s="33">
         <f>IF(B18="DIV", F18,"")</f>
         <v/>
       </c>
-      <c r="AD53" s="34" t="n"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1" s="59">
-      <c r="E54" s="39" t="n"/>
-      <c r="F54" s="39" t="n"/>
-      <c r="G54" s="40" t="n"/>
-      <c r="J54" s="39" t="n"/>
-      <c r="K54" s="39" t="n"/>
-      <c r="L54" s="39" t="n"/>
-      <c r="M54" s="1" t="n"/>
-      <c r="W54" s="39" t="n"/>
-      <c r="X54" s="39" t="n"/>
-      <c r="Y54" s="39" t="n"/>
-      <c r="Z54" s="39" t="n"/>
-      <c r="AA54" s="39" t="n"/>
-      <c r="AB54" s="39" t="n"/>
-      <c r="AC54" s="39" t="n"/>
+      <c r="AD54" s="34" t="n"/>
     </row>
     <row r="55" ht="15.75" customHeight="1" s="59">
       <c r="E55" s="39" t="n"/>
@@ -18742,6 +18765,7 @@
       <c r="J990" s="39" t="n"/>
       <c r="K990" s="39" t="n"/>
       <c r="L990" s="39" t="n"/>
+      <c r="M990" s="1" t="n"/>
       <c r="W990" s="39" t="n"/>
       <c r="X990" s="39" t="n"/>
       <c r="Y990" s="39" t="n"/>
@@ -18989,6 +19013,21 @@
       <c r="AA1006" s="39" t="n"/>
       <c r="AB1006" s="39" t="n"/>
       <c r="AC1006" s="39" t="n"/>
+    </row>
+    <row r="1007">
+      <c r="E1007" s="39" t="n"/>
+      <c r="F1007" s="39" t="n"/>
+      <c r="G1007" s="40" t="n"/>
+      <c r="J1007" s="39" t="n"/>
+      <c r="K1007" s="39" t="n"/>
+      <c r="L1007" s="39" t="n"/>
+      <c r="W1007" s="39" t="n"/>
+      <c r="X1007" s="39" t="n"/>
+      <c r="Y1007" s="39" t="n"/>
+      <c r="Z1007" s="39" t="n"/>
+      <c r="AA1007" s="39" t="n"/>
+      <c r="AB1007" s="39" t="n"/>
+      <c r="AC1007" s="39" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO48"/>

--- a/dumps/Stocks/Indian Rail Tour Corp Ltd.xlsx
+++ b/dumps/Stocks/Indian Rail Tour Corp Ltd.xlsx
@@ -708,7 +708,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1007"/>
+  <dimension ref="A1:AP1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="59">
       <c r="A5" s="72" t="n">
-        <v>46063</v>
+        <v>46059</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1071,24 +1071,21 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>633.5</v>
+        <v>614.5</v>
       </c>
       <c r="F5" t="n">
-        <v>6379.92</v>
+        <v>3087.85</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>6.33</v>
-      </c>
       <c r="I5" t="n">
-        <v>38.59</v>
+        <v>15.35</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1097,7 +1094,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1" s="59">
       <c r="A6" s="72" t="n">
-        <v>46062</v>
+        <v>46038</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1110,24 +1107,21 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>623.8</v>
+        <v>631.5</v>
       </c>
       <c r="F6" t="n">
-        <v>6282.21</v>
+        <v>3173.3</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252610644483</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>6.23</v>
-      </c>
       <c r="I6" t="n">
-        <v>37.98</v>
+        <v>15.8</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -1135,8 +1129,8 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="59">
-      <c r="A7" s="71" t="n">
-        <v>46057</v>
+      <c r="A7" s="72" t="n">
+        <v>46030</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1149,29 +1143,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>617.5</v>
+        <v>655.75</v>
       </c>
       <c r="F7" t="n">
-        <v>6218.91</v>
+        <v>3295.15</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252610347614</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>6.2</v>
-      </c>
       <c r="I7" t="n">
-        <v>37.71</v>
+        <v>16.4</v>
+      </c>
+      <c r="J7">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="59">
-      <c r="A8" s="71" t="n">
-        <v>46050</v>
+      <c r="A8" s="72" t="n">
+        <v>46017</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1187,30 +1182,31 @@
         <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>617.8</v>
+        <v>689.8099999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>3110.92</v>
+        <v>3466.3</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252609810990</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>3.11</v>
-      </c>
       <c r="I8" t="n">
-        <v>18.81</v>
+        <v>17.25</v>
+      </c>
+      <c r="J8">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="59">
-      <c r="A9" s="71" t="n">
-        <v>46049</v>
+      <c r="A9" s="72" t="n">
+        <v>45988</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1219,29 +1215,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>614.4</v>
+        <v>692.97</v>
       </c>
       <c r="F9" t="n">
-        <v>6187.54</v>
+        <v>3482.17</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252608703866</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>6.14</v>
-      </c>
       <c r="I9" t="n">
-        <v>37.4</v>
+        <v>17.32</v>
+      </c>
+      <c r="J9">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="59">
-      <c r="A10" s="71" t="n">
-        <v>46038</v>
+      <c r="A10" s="72" t="n">
+        <v>45982</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1254,29 +1251,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>631.5</v>
+        <v>695</v>
       </c>
       <c r="F10" t="n">
-        <v>2543.93</v>
+        <v>3492.4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252608495287</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>2.53</v>
-      </c>
       <c r="I10" t="n">
-        <v>15.4</v>
+        <v>17.4</v>
+      </c>
+      <c r="J10">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="59">
-      <c r="A11" s="71" t="n">
-        <v>46038</v>
+      <c r="A11" s="72" t="n">
+        <v>46063</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1289,29 +1287,33 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>631.5</v>
+        <v>633.5</v>
       </c>
       <c r="F11" t="n">
-        <v>635.96</v>
+        <v>6379.92</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.63</v>
+        <v>6.33</v>
       </c>
       <c r="I11" t="n">
-        <v>3.83</v>
+        <v>38.59</v>
+      </c>
+      <c r="J11">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="59">
-      <c r="A12" s="71" t="n">
-        <v>46034</v>
+      <c r="A12" s="72" t="n">
+        <v>46062</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1324,29 +1326,33 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>637.3</v>
+        <v>623.8</v>
       </c>
       <c r="F12" t="n">
-        <v>3209.13</v>
+        <v>6282.21</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>6.23</v>
       </c>
       <c r="I12" t="n">
-        <v>19.43</v>
+        <v>37.98</v>
+      </c>
+      <c r="J12">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="59">
       <c r="A13" s="71" t="n">
-        <v>46030</v>
+        <v>46057</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1359,13 +1365,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>655.75</v>
+        <v>617.5</v>
       </c>
       <c r="F13" t="n">
-        <v>1981.2</v>
+        <v>6218.91</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1373,15 +1379,15 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.96</v>
+        <v>6.2</v>
       </c>
       <c r="I13" t="n">
-        <v>11.99</v>
+        <v>37.71</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="59">
       <c r="A14" s="71" t="n">
-        <v>46030</v>
+        <v>46050</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1394,13 +1400,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>655.75</v>
+        <v>617.8</v>
       </c>
       <c r="F14" t="n">
-        <v>1320.78</v>
+        <v>3110.92</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1408,15 +1414,15 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1.3</v>
+        <v>3.11</v>
       </c>
       <c r="I14" t="n">
-        <v>7.98</v>
+        <v>18.81</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="59">
       <c r="A15" s="71" t="n">
-        <v>46017</v>
+        <v>46049</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1429,13 +1435,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>689.85</v>
+        <v>614.4</v>
       </c>
       <c r="F15" t="n">
-        <v>2084.24</v>
+        <v>6187.54</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1443,15 +1449,15 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2.08</v>
+        <v>6.14</v>
       </c>
       <c r="I15" t="n">
-        <v>12.61</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="59">
       <c r="A16" s="71" t="n">
-        <v>46017</v>
+        <v>46038</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1464,13 +1470,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>689.75</v>
+        <v>631.5</v>
       </c>
       <c r="F16" t="n">
-        <v>1389.27</v>
+        <v>2543.93</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1478,15 +1484,15 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.38</v>
+        <v>2.53</v>
       </c>
       <c r="I16" t="n">
-        <v>8.390000000000001</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="59">
       <c r="A17" s="71" t="n">
-        <v>46015</v>
+        <v>46038</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1499,13 +1505,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>681.7</v>
+        <v>631.5</v>
       </c>
       <c r="F17" t="n">
-        <v>3432.64</v>
+        <v>635.96</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1513,15 +1519,15 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.39</v>
+        <v>0.63</v>
       </c>
       <c r="I17" t="n">
-        <v>20.75</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="59">
       <c r="A18" s="71" t="n">
-        <v>46014</v>
+        <v>46034</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1537,10 +1543,10 @@
         <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>683.75</v>
+        <v>637.3</v>
       </c>
       <c r="F18" t="n">
-        <v>3442.95</v>
+        <v>3209.13</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1548,19 +1554,19 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>20.8</v>
+        <v>19.43</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="59">
       <c r="A19" s="71" t="n">
-        <v>46009</v>
+        <v>46030</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1569,13 +1575,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>662.7</v>
+        <v>655.75</v>
       </c>
       <c r="F19" t="n">
-        <v>3336.98</v>
+        <v>1981.2</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1583,15 +1589,15 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3.32</v>
+        <v>1.96</v>
       </c>
       <c r="I19" t="n">
-        <v>20.16</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="59">
       <c r="A20" s="71" t="n">
-        <v>46008</v>
+        <v>46030</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1604,13 +1610,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>667.35</v>
+        <v>655.75</v>
       </c>
       <c r="F20" t="n">
-        <v>6720.84</v>
+        <v>1320.78</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1618,19 +1624,19 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6.71</v>
+        <v>1.3</v>
       </c>
       <c r="I20" t="n">
-        <v>40.63</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="59">
       <c r="A21" s="71" t="n">
-        <v>46002</v>
+        <v>46017</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1639,13 +1645,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>667.85</v>
+        <v>689.85</v>
       </c>
       <c r="F21" t="n">
-        <v>3362.94</v>
+        <v>2084.24</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1653,15 +1659,15 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3.35</v>
+        <v>2.08</v>
       </c>
       <c r="I21" t="n">
-        <v>20.34</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="59">
       <c r="A22" s="71" t="n">
-        <v>45996</v>
+        <v>46017</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1674,13 +1680,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>671.15</v>
+        <v>689.75</v>
       </c>
       <c r="F22" t="n">
-        <v>6759.12</v>
+        <v>1389.27</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1688,19 +1694,19 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6.68</v>
+        <v>1.38</v>
       </c>
       <c r="I22" t="n">
-        <v>40.94</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="59">
       <c r="A23" s="71" t="n">
-        <v>45993</v>
+        <v>46015</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1712,10 +1718,10 @@
         <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>682.3</v>
+        <v>681.7</v>
       </c>
       <c r="F23" t="n">
-        <v>3435.69</v>
+        <v>3432.64</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1723,19 +1729,19 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3.43</v>
+        <v>3.39</v>
       </c>
       <c r="I23" t="n">
-        <v>20.76</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="59">
       <c r="A24" s="71" t="n">
-        <v>45988</v>
+        <v>46014</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1744,13 +1750,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>692.95</v>
+        <v>683.75</v>
       </c>
       <c r="F24" t="n">
-        <v>2093.57</v>
+        <v>3442.95</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1758,15 +1764,15 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2.07</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>12.65</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="59">
       <c r="A25" s="71" t="n">
-        <v>45988</v>
+        <v>46009</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1779,13 +1785,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E25" t="n">
-        <v>693</v>
+        <v>662.7</v>
       </c>
       <c r="F25" t="n">
-        <v>1395.81</v>
+        <v>3336.98</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1793,19 +1799,19 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.37</v>
+        <v>3.32</v>
       </c>
       <c r="I25" t="n">
-        <v>8.44</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="59">
       <c r="A26" s="71" t="n">
-        <v>45982</v>
+        <v>46008</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1814,33 +1820,33 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>667.35</v>
       </c>
       <c r="F26" t="n">
-        <v>575</v>
+        <v>6720.84</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.5.0000/- per share on Ex-Date: 21-NOV-2025  Interim-Dividend of Rs.5.0000/- per share on Ex-Date: 21-NOV-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.71</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>40.63</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="59">
       <c r="A27" s="71" t="n">
-        <v>45982</v>
+        <v>46002</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1849,13 +1855,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>695</v>
+        <v>667.85</v>
       </c>
       <c r="F27" t="n">
-        <v>1399.86</v>
+        <v>3362.94</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1863,15 +1869,15 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1.39</v>
+        <v>3.35</v>
       </c>
       <c r="I27" t="n">
-        <v>8.470000000000001</v>
+        <v>20.34</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="59">
       <c r="A28" s="71" t="n">
-        <v>45982</v>
+        <v>45996</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1884,13 +1890,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>695</v>
+        <v>671.15</v>
       </c>
       <c r="F28" t="n">
-        <v>2099.81</v>
+        <v>6759.12</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1898,15 +1904,15 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>2.09</v>
+        <v>6.68</v>
       </c>
       <c r="I28" t="n">
-        <v>12.72</v>
+        <v>40.94</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="59">
       <c r="A29" s="71" t="n">
-        <v>45978</v>
+        <v>45993</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1922,10 +1928,10 @@
         <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>715</v>
+        <v>682.3</v>
       </c>
       <c r="F29" t="n">
-        <v>3600.39</v>
+        <v>3435.69</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1933,15 +1939,15 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3.59</v>
+        <v>3.43</v>
       </c>
       <c r="I29" t="n">
-        <v>21.8</v>
+        <v>20.76</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="59">
       <c r="A30" s="71" t="n">
-        <v>45975</v>
+        <v>45988</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1954,13 +1960,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>703.8</v>
+        <v>692.95</v>
       </c>
       <c r="F30" t="n">
-        <v>3543.96</v>
+        <v>2093.57</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1968,19 +1974,19 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>3.53</v>
+        <v>2.07</v>
       </c>
       <c r="I30" t="n">
-        <v>21.43</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="59">
       <c r="A31" s="71" t="n">
-        <v>45974</v>
+        <v>45988</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1989,13 +1995,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>710.5</v>
+        <v>693</v>
       </c>
       <c r="F31" t="n">
-        <v>3577.65</v>
+        <v>1395.81</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2003,19 +2009,19 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3.53</v>
+        <v>1.37</v>
       </c>
       <c r="I31" t="n">
-        <v>21.62</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="59">
       <c r="A32" s="71" t="n">
-        <v>45968</v>
+        <v>45982</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2024,29 +2030,29 @@
         </is>
       </c>
       <c r="D32" t="n">
+        <v>115</v>
+      </c>
+      <c r="E32" t="n">
         <v>5</v>
       </c>
-      <c r="E32" t="n">
-        <v>700.95</v>
-      </c>
       <c r="F32" t="n">
-        <v>3529.58</v>
+        <v>575</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.5.0000/- per share on Ex-Date: 21-NOV-2025  Interim-Dividend of Rs.5.0000/- per share on Ex-Date: 21-NOV-2025</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>21.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="59">
       <c r="A33" s="71" t="n">
-        <v>45959</v>
+        <v>45982</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2059,13 +2065,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>725.15</v>
+        <v>695</v>
       </c>
       <c r="F33" t="n">
-        <v>3651.44</v>
+        <v>1399.86</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2073,15 +2079,15 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>3.62</v>
+        <v>1.39</v>
       </c>
       <c r="I33" t="n">
-        <v>22.07</v>
+        <v>8.470000000000001</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="59">
       <c r="A34" s="71" t="n">
-        <v>45957</v>
+        <v>45982</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2094,13 +2100,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>722.4</v>
+        <v>695</v>
       </c>
       <c r="F34" t="n">
-        <v>3637.58</v>
+        <v>2099.81</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2108,19 +2114,19 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>3.62</v>
+        <v>2.09</v>
       </c>
       <c r="I34" t="n">
-        <v>21.96</v>
+        <v>12.72</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="59">
       <c r="A35" s="71" t="n">
-        <v>45954</v>
+        <v>45978</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2132,10 +2138,10 @@
         <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="F35" t="n">
-        <v>3630.57</v>
+        <v>3600.39</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2143,15 +2149,15 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>3.61</v>
+        <v>3.59</v>
       </c>
       <c r="I35" t="n">
-        <v>21.96</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="59">
       <c r="A36" s="71" t="n">
-        <v>45950</v>
+        <v>45975</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2167,10 +2173,10 @@
         <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>726.7</v>
+        <v>703.8</v>
       </c>
       <c r="F36" t="n">
-        <v>3659.25</v>
+        <v>3543.96</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2178,15 +2184,15 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>3.63</v>
+        <v>3.53</v>
       </c>
       <c r="I36" t="n">
-        <v>22.12</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="59">
       <c r="A37" s="71" t="n">
-        <v>45947</v>
+        <v>45974</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2199,13 +2205,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E37" t="n">
-        <v>718.5</v>
+        <v>710.5</v>
       </c>
       <c r="F37" t="n">
-        <v>5788.72</v>
+        <v>3577.65</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2213,15 +2219,15 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>5.76</v>
+        <v>3.53</v>
       </c>
       <c r="I37" t="n">
-        <v>34.96</v>
+        <v>21.62</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="59">
       <c r="A38" s="71" t="n">
-        <v>45903</v>
+        <v>45968</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2237,10 +2243,10 @@
         <v>5</v>
       </c>
       <c r="E38" t="n">
-        <v>711.75</v>
+        <v>700.95</v>
       </c>
       <c r="F38" t="n">
-        <v>3583.98</v>
+        <v>3529.58</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2248,15 +2254,15 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>3.57</v>
+        <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>21.66</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="59">
       <c r="A39" s="71" t="n">
-        <v>45897</v>
+        <v>45959</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2269,13 +2275,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E39" t="n">
-        <v>709.45</v>
+        <v>725.15</v>
       </c>
       <c r="F39" t="n">
-        <v>1428.97</v>
+        <v>3651.44</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2283,615 +2289,225 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1.42</v>
+        <v>3.62</v>
       </c>
       <c r="I39" t="n">
-        <v>8.65</v>
+        <v>22.07</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="59">
-      <c r="A40" s="25" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B40" s="26" t="inlineStr">
+      <c r="A40" s="71" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C40" s="26" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D40" s="27" t="n">
+      <c r="D40" t="n">
         <v>5</v>
       </c>
-      <c r="E40" s="28" t="n">
-        <v>731.85</v>
-      </c>
-      <c r="F40" s="28">
-        <f>#REF!*#REF!</f>
-        <v/>
-      </c>
-      <c r="G40" s="26" t="inlineStr">
+      <c r="E40" t="n">
+        <v>722.4</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3637.58</v>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H40" s="27" t="n"/>
-      <c r="I40" s="27" t="n"/>
-      <c r="J40" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K40" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="L40" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
-        <v/>
-      </c>
-      <c r="M40" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="N40" s="32">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
-        <v/>
-      </c>
-      <c r="O40" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="P40" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
-        <v/>
-      </c>
-      <c r="Q40" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="R40" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
-        <v/>
-      </c>
-      <c r="S40" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="T40" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
-        <v/>
-      </c>
-      <c r="U40" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="V40" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
-        <v/>
-      </c>
-      <c r="W40" s="31" t="n"/>
-      <c r="X40" s="31" t="n"/>
-      <c r="Y40" s="30">
-        <f>IF(AND(#REF!= "Buy",#REF!&lt;&gt; "",#REF!&lt;&gt; "",#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
-        <v/>
-      </c>
-      <c r="Z40" s="31" t="n"/>
-      <c r="AA40" s="31" t="n"/>
-      <c r="AB40" s="32" t="n"/>
-      <c r="AC40" s="33">
-        <f>IF(#REF!="DIV",#REF!, "")</f>
-        <v/>
-      </c>
-      <c r="AD40" s="34" t="n"/>
+      <c r="H40" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="I40" t="n">
+        <v>21.96</v>
+      </c>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="59">
-      <c r="A41" s="25" t="n">
-        <v>45947</v>
-      </c>
-      <c r="B41" s="26" t="inlineStr">
+      <c r="A41" s="71" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C41" s="26" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D41" s="27" t="n">
-        <v>8</v>
-      </c>
-      <c r="E41" s="28" t="n">
-        <v>723.59</v>
-      </c>
-      <c r="F41" s="28">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G41" s="26" t="inlineStr">
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>721</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3630.57</v>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H41" s="27" t="n"/>
-      <c r="I41" s="27" t="n"/>
-      <c r="J41" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K41" s="30">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/SUM(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L41" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M41" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N41" s="32">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O41" s="30">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/SUM(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P41" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q41" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R41" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S41" s="30">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/SUM(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T41" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U41" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V41" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W41" s="31" t="n"/>
-      <c r="X41" s="31" t="n"/>
-      <c r="Y41" s="30">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/SUM(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z41" s="31" t="n"/>
-      <c r="AA41" s="31" t="n"/>
-      <c r="AB41" s="32" t="n"/>
-      <c r="AC41" s="33">
-        <f>IF(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD41" s="34" t="n"/>
+      <c r="H41" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="I41" t="n">
+        <v>21.96</v>
+      </c>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="59">
-      <c r="A42" s="25" t="n">
-        <v>45903</v>
-      </c>
-      <c r="B42" s="26" t="inlineStr">
+      <c r="A42" s="71" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>726.7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3659.25</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="I42" t="n">
+        <v>22.12</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1" s="59">
+      <c r="A43" s="71" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C42" s="26" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D42" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="E42" s="28" t="n">
-        <v>716.8</v>
-      </c>
-      <c r="F42" s="28" t="n">
-        <v>3583.98</v>
-      </c>
-      <c r="G42" s="26" t="inlineStr">
+      <c r="D43" t="n">
+        <v>8</v>
+      </c>
+      <c r="E43" t="n">
+        <v>718.5</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5788.72</v>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H42" s="27" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="I42" s="27" t="n">
-        <v>21.66</v>
-      </c>
-      <c r="J42" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K42" s="30">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/SUM(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L42" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M42" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N42" s="32">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O42" s="30">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/SUM(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P42" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q42" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R42" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S42" s="30">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/SUM(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T42" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U42" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V42" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W42" s="31" t="n"/>
-      <c r="X42" s="31" t="n"/>
-      <c r="Y42" s="30">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/SUM(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z42" s="31" t="n"/>
-      <c r="AA42" s="31" t="n"/>
-      <c r="AB42" s="32" t="n"/>
-      <c r="AC42" s="33">
-        <f>IF(B6="DIV", F6,"")</f>
-        <v/>
-      </c>
-      <c r="AD42" s="34" t="n"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1" s="59">
-      <c r="A43" s="25" t="n">
-        <v>45897</v>
-      </c>
-      <c r="B43" s="26" t="inlineStr">
+      <c r="H43" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="I43" t="n">
+        <v>34.96</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1" s="59">
+      <c r="A44" s="71" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C43" s="26" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D43" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="E43" s="28" t="n">
-        <v>714.49</v>
-      </c>
-      <c r="F43" s="28" t="n">
-        <v>1428.97</v>
-      </c>
-      <c r="G43" s="26" t="inlineStr">
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>711.75</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3583.98</v>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H43" s="27" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="I43" s="27" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="J43" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K43" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="L43" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="M43" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
-        <v/>
-      </c>
-      <c r="N43" s="32">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
-        <v/>
-      </c>
-      <c r="O43" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="P43" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="Q43" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
-        <v/>
-      </c>
-      <c r="R43" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="S43" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="T43" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="U43" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
-        <v/>
-      </c>
-      <c r="V43" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="W43" s="31" t="n"/>
-      <c r="X43" s="31" t="n"/>
-      <c r="Y43" s="30">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="Z43" s="31" t="n"/>
-      <c r="AA43" s="31" t="n"/>
-      <c r="AB43" s="32" t="n"/>
-      <c r="AC43" s="33">
-        <f>IF(B7="DIV", F7,"")</f>
-        <v/>
-      </c>
-      <c r="AD43" s="34" t="n"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1" s="59">
-      <c r="A44" s="25" t="n">
-        <v>45891</v>
-      </c>
-      <c r="B44" s="26" t="inlineStr">
+      <c r="H44" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="I44" t="n">
+        <v>21.66</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" s="59">
+      <c r="A45" s="71" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
-      <c r="C44" s="26" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D44" s="27" t="n">
-        <v>60</v>
-      </c>
-      <c r="E44" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="28" t="n">
-        <v>60</v>
-      </c>
-      <c r="G44" s="26" t="inlineStr">
-        <is>
-          <t>Final-Dividend of Rs.1.0000/- per share on Ex-Date: 22-AUG-2025</t>
-        </is>
-      </c>
-      <c r="H44" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K44" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/SUM(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="L44" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v/>
-      </c>
-      <c r="M44" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
-        <v/>
-      </c>
-      <c r="N44" s="32">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
-        <v/>
-      </c>
-      <c r="O44" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/SUM(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="P44" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v/>
-      </c>
-      <c r="Q44" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
-        <v/>
-      </c>
-      <c r="R44" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
-        <v/>
-      </c>
-      <c r="S44" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/SUM(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="T44" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v/>
-      </c>
-      <c r="U44" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
-        <v/>
-      </c>
-      <c r="V44" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
-        <v/>
-      </c>
-      <c r="W44" s="31" t="n"/>
-      <c r="X44" s="31" t="n"/>
-      <c r="Y44" s="30">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/SUM(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="Z44" s="31" t="n"/>
-      <c r="AA44" s="31" t="n"/>
-      <c r="AB44" s="32" t="n"/>
-      <c r="AC44" s="33">
-        <f>IF(B8="DIV", F8,"")</f>
-        <v/>
-      </c>
-      <c r="AD44" s="34" t="n"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1" s="59">
-      <c r="A45" s="25" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B45" s="26" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C45" s="26" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D45" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="E45" s="28" t="n">
-        <v>781.8</v>
-      </c>
-      <c r="F45" s="28" t="n">
-        <v>3909</v>
-      </c>
-      <c r="G45" s="26" t="inlineStr">
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>709.45</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1428.97</v>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H45" s="27" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="I45" s="27" t="n">
-        <v>23.62</v>
-      </c>
-      <c r="J45" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K45" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/SUM(F9:I9), "")</f>
-        <v/>
-      </c>
-      <c r="L45" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
-        <v/>
-      </c>
-      <c r="M45" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
-        <v/>
-      </c>
-      <c r="N45" s="32">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
-        <v/>
-      </c>
-      <c r="O45" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/SUM(F9:I9), "")</f>
-        <v/>
-      </c>
-      <c r="P45" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
-        <v/>
-      </c>
-      <c r="Q45" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
-        <v/>
-      </c>
-      <c r="R45" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
-        <v/>
-      </c>
-      <c r="S45" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/SUM(F9:I9), "")</f>
-        <v/>
-      </c>
-      <c r="T45" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
-        <v/>
-      </c>
-      <c r="U45" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
-        <v/>
-      </c>
-      <c r="V45" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
-        <v/>
-      </c>
-      <c r="W45" s="31" t="n"/>
-      <c r="X45" s="31" t="n"/>
-      <c r="Y45" s="30">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/SUM(F9:I9), "")</f>
-        <v/>
-      </c>
-      <c r="Z45" s="31" t="n"/>
-      <c r="AA45" s="31" t="n"/>
-      <c r="AB45" s="32" t="n"/>
-      <c r="AC45" s="33">
-        <f>IF(B9="DIV", F9,"")</f>
-        <v/>
-      </c>
-      <c r="AD45" s="34" t="n"/>
+      <c r="H45" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I45" t="n">
+        <v>8.65</v>
+      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="59">
       <c r="A46" s="25" t="n">
-        <v>45820</v>
+        <v>45950</v>
       </c>
       <c r="B46" s="26" t="inlineStr">
         <is>
@@ -2907,92 +2523,89 @@
         <v>5</v>
       </c>
       <c r="E46" s="28" t="n">
-        <v>790.15</v>
-      </c>
-      <c r="F46" s="28" t="n">
-        <v>3950.75</v>
+        <v>731.85</v>
+      </c>
+      <c r="F46" s="28">
+        <f>#REF!*#REF!</f>
+        <v/>
       </c>
       <c r="G46" s="26" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H46" s="27" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="I46" s="27" t="n">
-        <v>23.84</v>
-      </c>
+      <c r="H46" s="27" t="n"/>
+      <c r="I46" s="27" t="n"/>
       <c r="J46" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/SUM(F10:I10), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="L46" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="M46" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="N46" s="32">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
         <v/>
       </c>
       <c r="O46" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/SUM(F10:I10), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="P46" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="R46" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
         <v/>
       </c>
       <c r="S46" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/SUM(F10:I10), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="T46" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="U46" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="V46" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
       <c r="W46" s="31" t="n"/>
       <c r="X46" s="31" t="n"/>
       <c r="Y46" s="30">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/SUM(F10:I10), "")</f>
+        <f>IF(AND(#REF!= "Buy",#REF!&lt;&gt; "",#REF!&lt;&gt; "",#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="Z46" s="31" t="n"/>
       <c r="AA46" s="31" t="n"/>
       <c r="AB46" s="32" t="n"/>
       <c r="AC46" s="33">
-        <f>IF(B10="DIV", F10,"")</f>
+        <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD46" s="34" t="n"/>
     </row>
     <row r="47" ht="15.75" customHeight="1" s="59">
       <c r="A47" s="25" t="n">
-        <v>45811</v>
+        <v>45947</v>
       </c>
       <c r="B47" s="26" t="inlineStr">
         <is>
@@ -3005,95 +2618,92 @@
         </is>
       </c>
       <c r="D47" s="27" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E47" s="28" t="n">
-        <v>776.91</v>
-      </c>
-      <c r="F47" s="28" t="n">
-        <v>1553.82</v>
+        <v>723.59</v>
+      </c>
+      <c r="F47" s="28">
+        <f>D5*E5</f>
+        <v/>
       </c>
       <c r="G47" s="26" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H47" s="27" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="I47" s="27" t="n">
-        <v>9.380000000000001</v>
-      </c>
+      <c r="H47" s="27" t="n"/>
+      <c r="I47" s="27" t="n"/>
       <c r="J47" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/SUM(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L47" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M47" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N47" s="32">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O47" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/SUM(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P47" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R47" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S47" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/SUM(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T47" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U47" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V47" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W47" s="31" t="n"/>
       <c r="X47" s="31" t="n"/>
       <c r="Y47" s="30">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/SUM(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z47" s="31" t="n"/>
       <c r="AA47" s="31" t="n"/>
       <c r="AB47" s="32" t="n"/>
       <c r="AC47" s="33">
-        <f>IF(B11="DIV", F11,"")</f>
+        <f>IF(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD47" s="34" t="n"/>
     </row>
     <row r="48" ht="15.75" customHeight="1" s="59">
       <c r="A48" s="25" t="n">
-        <v>45811</v>
+        <v>45903</v>
       </c>
       <c r="B48" s="26" t="inlineStr">
         <is>
@@ -3109,10 +2719,10 @@
         <v>5</v>
       </c>
       <c r="E48" s="28" t="n">
-        <v>776.92</v>
+        <v>716.8</v>
       </c>
       <c r="F48" s="28" t="n">
-        <v>3884.62</v>
+        <v>3583.98</v>
       </c>
       <c r="G48" s="26" t="inlineStr">
         <is>
@@ -3120,779 +2730,1289 @@
         </is>
       </c>
       <c r="H48" s="27" t="n">
-        <v>3.86</v>
+        <v>3.57</v>
       </c>
       <c r="I48" s="27" t="n">
-        <v>23.51</v>
+        <v>21.66</v>
       </c>
       <c r="J48" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/SUM(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L48" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M48" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N48" s="32">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O48" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/SUM(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P48" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R48" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S48" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/SUM(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T48" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U48" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V48" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W48" s="31" t="n"/>
       <c r="X48" s="31" t="n"/>
       <c r="Y48" s="30">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/SUM(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z48" s="31" t="n"/>
       <c r="AA48" s="31" t="n"/>
       <c r="AB48" s="32" t="n"/>
       <c r="AC48" s="33">
-        <f>IF(B12="DIV", F12,"")</f>
+        <f>IF(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD48" s="34" t="n"/>
     </row>
     <row r="49" ht="15.75" customHeight="1" s="59">
-      <c r="A49" s="35" t="n">
-        <v>45716</v>
-      </c>
-      <c r="B49" s="36" t="inlineStr">
+      <c r="A49" s="25" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B49" s="26" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C49" s="36" t="inlineStr">
+      <c r="C49" s="26" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D49" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="E49" s="38" t="n">
-        <v>680.1900000000001</v>
-      </c>
-      <c r="F49" s="38" t="n">
-        <v>2040.56</v>
-      </c>
-      <c r="G49" s="36" t="inlineStr">
+      <c r="D49" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" s="28" t="n">
+        <v>714.49</v>
+      </c>
+      <c r="F49" s="28" t="n">
+        <v>1428.97</v>
+      </c>
+      <c r="G49" s="26" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H49" s="37" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I49" s="37" t="n">
-        <v>12.34</v>
+      <c r="H49" s="27" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I49" s="27" t="n">
+        <v>8.65</v>
       </c>
       <c r="J49" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L49" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M49" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N49" s="32">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O49" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P49" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R49" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S49" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T49" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U49" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V49" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W49" s="31" t="n"/>
       <c r="X49" s="31" t="n"/>
       <c r="Y49" s="30">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z49" s="31" t="n"/>
       <c r="AA49" s="31" t="n"/>
       <c r="AB49" s="32" t="n"/>
       <c r="AC49" s="33">
-        <f>IF(B13="DIV", F13,"")</f>
+        <f>IF(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD49" s="34" t="n"/>
     </row>
     <row r="50" ht="15.75" customHeight="1" s="59">
-      <c r="A50" s="35" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B50" s="36" t="inlineStr">
+      <c r="A50" s="25" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B50" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
-      <c r="C50" s="36" t="inlineStr">
+      <c r="C50" s="26" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D50" s="37" t="n">
-        <v>7</v>
-      </c>
-      <c r="E50" s="38" t="n">
-        <v>728.63</v>
-      </c>
-      <c r="F50" s="38" t="n">
-        <v>5100.4</v>
-      </c>
-      <c r="G50" s="36" t="inlineStr">
+      <c r="D50" s="27" t="n">
+        <v>60</v>
+      </c>
+      <c r="E50" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="28" t="n">
+        <v>60</v>
+      </c>
+      <c r="G50" s="26" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.1.0000/- per share on Ex-Date: 22-AUG-2025</t>
         </is>
       </c>
-      <c r="H50" s="37" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="I50" s="37" t="n">
-        <v>30.84</v>
+      <c r="H50" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="27" t="n">
+        <v>0</v>
       </c>
       <c r="J50" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L50" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M50" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N50" s="32">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O50" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P50" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R50" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S50" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T50" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U50" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V50" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W50" s="31" t="n"/>
       <c r="X50" s="31" t="n"/>
       <c r="Y50" s="30">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z50" s="31" t="n"/>
       <c r="AA50" s="31" t="n"/>
       <c r="AB50" s="32" t="n"/>
       <c r="AC50" s="33">
-        <f>IF(B14="DIV", F14,"")</f>
+        <f>IF(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD50" s="34" t="n"/>
     </row>
     <row r="51" ht="15.75" customHeight="1" s="59">
-      <c r="A51" s="35" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B51" s="36" t="inlineStr">
+      <c r="A51" s="25" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B51" s="26" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C51" s="36" t="inlineStr">
+      <c r="C51" s="26" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D51" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="E51" s="38" t="n">
-        <v>728.64</v>
-      </c>
-      <c r="F51" s="38" t="n">
-        <v>2185.91</v>
-      </c>
-      <c r="G51" s="36" t="inlineStr">
+      <c r="D51" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" s="28" t="n">
+        <v>781.8</v>
+      </c>
+      <c r="F51" s="28" t="n">
+        <v>3909</v>
+      </c>
+      <c r="G51" s="26" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H51" s="37" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="I51" s="37" t="n">
-        <v>13.24</v>
+      <c r="H51" s="27" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="I51" s="27" t="n">
+        <v>23.62</v>
       </c>
       <c r="J51" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L51" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M51" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N51" s="32">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O51" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P51" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R51" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S51" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T51" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U51" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V51" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W51" s="31" t="n"/>
       <c r="X51" s="31" t="n"/>
       <c r="Y51" s="30">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z51" s="31" t="n"/>
       <c r="AA51" s="31" t="n"/>
       <c r="AB51" s="32" t="n"/>
       <c r="AC51" s="33">
-        <f>IF(B15="DIV", F15,"")</f>
+        <f>IF(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD51" s="34" t="n"/>
     </row>
     <row r="52" ht="15.75" customHeight="1" s="59">
-      <c r="A52" s="35" t="n">
-        <v>45705</v>
-      </c>
-      <c r="B52" s="36" t="inlineStr">
+      <c r="A52" s="25" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B52" s="26" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C52" s="36" t="inlineStr">
+      <c r="C52" s="26" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D52" s="37" t="n">
-        <v>20</v>
-      </c>
-      <c r="E52" s="38" t="n">
-        <v>730.14</v>
-      </c>
-      <c r="F52" s="38" t="n">
-        <v>14602.86</v>
-      </c>
-      <c r="G52" s="36" t="inlineStr">
+      <c r="D52" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" s="28" t="n">
+        <v>790.15</v>
+      </c>
+      <c r="F52" s="28" t="n">
+        <v>3950.75</v>
+      </c>
+      <c r="G52" s="26" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H52" s="37" t="n">
-        <v>14.48</v>
-      </c>
-      <c r="I52" s="37" t="n">
-        <v>88.38</v>
+      <c r="H52" s="27" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="I52" s="27" t="n">
+        <v>23.84</v>
       </c>
       <c r="J52" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L52" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M52" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N52" s="32">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O52" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P52" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R52" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S52" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T52" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U52" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V52" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W52" s="31" t="n"/>
       <c r="X52" s="31" t="n"/>
       <c r="Y52" s="30">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z52" s="31" t="n"/>
       <c r="AA52" s="31" t="n"/>
       <c r="AB52" s="32" t="n"/>
       <c r="AC52" s="33">
-        <f>IF(B16="DIV", F16,"")</f>
+        <f>IF(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD52" s="34" t="n"/>
     </row>
     <row r="53" ht="15.75" customHeight="1" s="59">
-      <c r="A53" s="35" t="n">
-        <v>45699</v>
-      </c>
-      <c r="B53" s="36" t="inlineStr">
+      <c r="A53" s="25" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B53" s="26" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C53" s="36" t="inlineStr">
+      <c r="C53" s="26" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D53" s="37" t="n">
+      <c r="D53" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="E53" s="38" t="n">
-        <v>763.17</v>
-      </c>
-      <c r="F53" s="38" t="n">
-        <v>1526.34</v>
-      </c>
-      <c r="G53" s="36" t="inlineStr">
+      <c r="E53" s="28" t="n">
+        <v>776.91</v>
+      </c>
+      <c r="F53" s="28" t="n">
+        <v>1553.82</v>
+      </c>
+      <c r="G53" s="26" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H53" s="37" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="I53" s="37" t="n">
-        <v>9.220000000000001</v>
+      <c r="H53" s="27" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I53" s="27" t="n">
+        <v>9.380000000000001</v>
       </c>
       <c r="J53" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L53" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M53" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N53" s="32">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O53" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P53" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R53" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S53" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T53" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U53" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V53" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W53" s="31" t="n"/>
       <c r="X53" s="31" t="n"/>
       <c r="Y53" s="30">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z53" s="31" t="n"/>
       <c r="AA53" s="31" t="n"/>
       <c r="AB53" s="32" t="n"/>
       <c r="AC53" s="33">
-        <f>IF(B17="DIV", F17,"")</f>
+        <f>IF(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD53" s="34" t="n"/>
     </row>
     <row r="54" ht="15.75" customHeight="1" s="59">
-      <c r="A54" s="35" t="n">
-        <v>45699</v>
-      </c>
-      <c r="B54" s="36" t="inlineStr">
+      <c r="A54" s="25" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B54" s="26" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C54" s="36" t="inlineStr">
+      <c r="C54" s="26" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D54" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="E54" s="38" t="n">
-        <v>763.17</v>
-      </c>
-      <c r="F54" s="38" t="n">
-        <v>6105.37</v>
-      </c>
-      <c r="G54" s="36" t="inlineStr">
+      <c r="D54" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" s="28" t="n">
+        <v>776.92</v>
+      </c>
+      <c r="F54" s="28" t="n">
+        <v>3884.62</v>
+      </c>
+      <c r="G54" s="26" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H54" s="37" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="I54" s="37" t="n">
-        <v>36.91</v>
+      <c r="H54" s="27" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="I54" s="27" t="n">
+        <v>23.51</v>
       </c>
       <c r="J54" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L54" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M54" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N54" s="32">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O54" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P54" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R54" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S54" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T54" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U54" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V54" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W54" s="31" t="n"/>
       <c r="X54" s="31" t="n"/>
       <c r="Y54" s="30">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z54" s="31" t="n"/>
       <c r="AA54" s="31" t="n"/>
       <c r="AB54" s="32" t="n"/>
       <c r="AC54" s="33">
+        <f>IF(B12="DIV", F12,"")</f>
+        <v/>
+      </c>
+      <c r="AD54" s="34" t="n"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1" s="59">
+      <c r="A55" s="35" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B55" s="36" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C55" s="36" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D55" s="37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" s="38" t="n">
+        <v>680.1900000000001</v>
+      </c>
+      <c r="F55" s="38" t="n">
+        <v>2040.56</v>
+      </c>
+      <c r="G55" s="36" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H55" s="37" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I55" s="37" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="J55" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K55" s="30">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
+        <v/>
+      </c>
+      <c r="L55" s="31">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <v/>
+      </c>
+      <c r="M55" s="31">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <v/>
+      </c>
+      <c r="N55" s="32">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <v/>
+      </c>
+      <c r="O55" s="30">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
+        <v/>
+      </c>
+      <c r="P55" s="31">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <v/>
+      </c>
+      <c r="Q55" s="31">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <v/>
+      </c>
+      <c r="R55" s="31">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <v/>
+      </c>
+      <c r="S55" s="30">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
+        <v/>
+      </c>
+      <c r="T55" s="31">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <v/>
+      </c>
+      <c r="U55" s="31">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <v/>
+      </c>
+      <c r="V55" s="31">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <v/>
+      </c>
+      <c r="W55" s="31" t="n"/>
+      <c r="X55" s="31" t="n"/>
+      <c r="Y55" s="30">
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/SUM(F13:I13), "")</f>
+        <v/>
+      </c>
+      <c r="Z55" s="31" t="n"/>
+      <c r="AA55" s="31" t="n"/>
+      <c r="AB55" s="32" t="n"/>
+      <c r="AC55" s="33">
+        <f>IF(B13="DIV", F13,"")</f>
+        <v/>
+      </c>
+      <c r="AD55" s="34" t="n"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1" s="59">
+      <c r="A56" s="35" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B56" s="36" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C56" s="36" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D56" s="37" t="n">
+        <v>7</v>
+      </c>
+      <c r="E56" s="38" t="n">
+        <v>728.63</v>
+      </c>
+      <c r="F56" s="38" t="n">
+        <v>5100.4</v>
+      </c>
+      <c r="G56" s="36" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H56" s="37" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="I56" s="37" t="n">
+        <v>30.84</v>
+      </c>
+      <c r="J56" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K56" s="30">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
+        <v/>
+      </c>
+      <c r="L56" s="31">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <v/>
+      </c>
+      <c r="M56" s="31">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <v/>
+      </c>
+      <c r="N56" s="32">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <v/>
+      </c>
+      <c r="O56" s="30">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
+        <v/>
+      </c>
+      <c r="P56" s="31">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <v/>
+      </c>
+      <c r="Q56" s="31">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <v/>
+      </c>
+      <c r="R56" s="31">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <v/>
+      </c>
+      <c r="S56" s="30">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
+        <v/>
+      </c>
+      <c r="T56" s="31">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <v/>
+      </c>
+      <c r="U56" s="31">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <v/>
+      </c>
+      <c r="V56" s="31">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <v/>
+      </c>
+      <c r="W56" s="31" t="n"/>
+      <c r="X56" s="31" t="n"/>
+      <c r="Y56" s="30">
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/SUM(F14:I14), "")</f>
+        <v/>
+      </c>
+      <c r="Z56" s="31" t="n"/>
+      <c r="AA56" s="31" t="n"/>
+      <c r="AB56" s="32" t="n"/>
+      <c r="AC56" s="33">
+        <f>IF(B14="DIV", F14,"")</f>
+        <v/>
+      </c>
+      <c r="AD56" s="34" t="n"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1" s="59">
+      <c r="A57" s="35" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B57" s="36" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C57" s="36" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D57" s="37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" s="38" t="n">
+        <v>728.64</v>
+      </c>
+      <c r="F57" s="38" t="n">
+        <v>2185.91</v>
+      </c>
+      <c r="G57" s="36" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H57" s="37" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="I57" s="37" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="J57" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K57" s="30">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
+        <v/>
+      </c>
+      <c r="L57" s="31">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <v/>
+      </c>
+      <c r="M57" s="31">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <v/>
+      </c>
+      <c r="N57" s="32">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <v/>
+      </c>
+      <c r="O57" s="30">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
+        <v/>
+      </c>
+      <c r="P57" s="31">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <v/>
+      </c>
+      <c r="Q57" s="31">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <v/>
+      </c>
+      <c r="R57" s="31">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <v/>
+      </c>
+      <c r="S57" s="30">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
+        <v/>
+      </c>
+      <c r="T57" s="31">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <v/>
+      </c>
+      <c r="U57" s="31">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <v/>
+      </c>
+      <c r="V57" s="31">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <v/>
+      </c>
+      <c r="W57" s="31" t="n"/>
+      <c r="X57" s="31" t="n"/>
+      <c r="Y57" s="30">
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/SUM(F15:I15), "")</f>
+        <v/>
+      </c>
+      <c r="Z57" s="31" t="n"/>
+      <c r="AA57" s="31" t="n"/>
+      <c r="AB57" s="32" t="n"/>
+      <c r="AC57" s="33">
+        <f>IF(B15="DIV", F15,"")</f>
+        <v/>
+      </c>
+      <c r="AD57" s="34" t="n"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1" s="59">
+      <c r="A58" s="35" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B58" s="36" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C58" s="36" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D58" s="37" t="n">
+        <v>20</v>
+      </c>
+      <c r="E58" s="38" t="n">
+        <v>730.14</v>
+      </c>
+      <c r="F58" s="38" t="n">
+        <v>14602.86</v>
+      </c>
+      <c r="G58" s="36" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H58" s="37" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="I58" s="37" t="n">
+        <v>88.38</v>
+      </c>
+      <c r="J58" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K58" s="30">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
+        <v/>
+      </c>
+      <c r="L58" s="31">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <v/>
+      </c>
+      <c r="M58" s="31">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <v/>
+      </c>
+      <c r="N58" s="32">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <v/>
+      </c>
+      <c r="O58" s="30">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
+        <v/>
+      </c>
+      <c r="P58" s="31">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <v/>
+      </c>
+      <c r="Q58" s="31">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <v/>
+      </c>
+      <c r="R58" s="31">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <v/>
+      </c>
+      <c r="S58" s="30">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
+        <v/>
+      </c>
+      <c r="T58" s="31">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <v/>
+      </c>
+      <c r="U58" s="31">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <v/>
+      </c>
+      <c r="V58" s="31">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <v/>
+      </c>
+      <c r="W58" s="31" t="n"/>
+      <c r="X58" s="31" t="n"/>
+      <c r="Y58" s="30">
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
+        <v/>
+      </c>
+      <c r="Z58" s="31" t="n"/>
+      <c r="AA58" s="31" t="n"/>
+      <c r="AB58" s="32" t="n"/>
+      <c r="AC58" s="33">
+        <f>IF(B16="DIV", F16,"")</f>
+        <v/>
+      </c>
+      <c r="AD58" s="34" t="n"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1" s="59">
+      <c r="A59" s="35" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B59" s="36" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C59" s="36" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D59" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" s="38" t="n">
+        <v>763.17</v>
+      </c>
+      <c r="F59" s="38" t="n">
+        <v>1526.34</v>
+      </c>
+      <c r="G59" s="36" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H59" s="37" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I59" s="37" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="J59" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K59" s="30">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="L59" s="31">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="M59" s="31">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <v/>
+      </c>
+      <c r="N59" s="32">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <v/>
+      </c>
+      <c r="O59" s="30">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="P59" s="31">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="Q59" s="31">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <v/>
+      </c>
+      <c r="R59" s="31">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="S59" s="30">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="T59" s="31">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="U59" s="31">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <v/>
+      </c>
+      <c r="V59" s="31">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="W59" s="31" t="n"/>
+      <c r="X59" s="31" t="n"/>
+      <c r="Y59" s="30">
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="Z59" s="31" t="n"/>
+      <c r="AA59" s="31" t="n"/>
+      <c r="AB59" s="32" t="n"/>
+      <c r="AC59" s="33">
+        <f>IF(B17="DIV", F17,"")</f>
+        <v/>
+      </c>
+      <c r="AD59" s="34" t="n"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1" s="59">
+      <c r="A60" s="35" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B60" s="36" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C60" s="36" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D60" s="37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E60" s="38" t="n">
+        <v>763.17</v>
+      </c>
+      <c r="F60" s="38" t="n">
+        <v>6105.37</v>
+      </c>
+      <c r="G60" s="36" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H60" s="37" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="I60" s="37" t="n">
+        <v>36.91</v>
+      </c>
+      <c r="J60" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K60" s="30">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="L60" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <v/>
+      </c>
+      <c r="M60" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <v/>
+      </c>
+      <c r="N60" s="32">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <v/>
+      </c>
+      <c r="O60" s="30">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="P60" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <v/>
+      </c>
+      <c r="Q60" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <v/>
+      </c>
+      <c r="R60" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <v/>
+      </c>
+      <c r="S60" s="30">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="T60" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <v/>
+      </c>
+      <c r="U60" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <v/>
+      </c>
+      <c r="V60" s="31">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <v/>
+      </c>
+      <c r="W60" s="31" t="n"/>
+      <c r="X60" s="31" t="n"/>
+      <c r="Y60" s="30">
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="Z60" s="31" t="n"/>
+      <c r="AA60" s="31" t="n"/>
+      <c r="AB60" s="32" t="n"/>
+      <c r="AC60" s="33">
         <f>IF(B18="DIV", F18,"")</f>
         <v/>
       </c>
-      <c r="AD54" s="34" t="n"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1" s="59">
-      <c r="E55" s="39" t="n"/>
-      <c r="F55" s="39" t="n"/>
-      <c r="G55" s="40" t="n"/>
-      <c r="J55" s="39" t="n"/>
-      <c r="K55" s="39" t="n"/>
-      <c r="L55" s="39" t="n"/>
-      <c r="M55" s="1" t="n"/>
-      <c r="W55" s="39" t="n"/>
-      <c r="X55" s="39" t="n"/>
-      <c r="Y55" s="39" t="n"/>
-      <c r="Z55" s="39" t="n"/>
-      <c r="AA55" s="39" t="n"/>
-      <c r="AB55" s="39" t="n"/>
-      <c r="AC55" s="39" t="n"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1" s="59">
-      <c r="E56" s="39" t="n"/>
-      <c r="F56" s="39" t="n"/>
-      <c r="G56" s="40" t="n"/>
-      <c r="J56" s="39" t="n"/>
-      <c r="K56" s="39" t="n"/>
-      <c r="L56" s="39" t="n"/>
-      <c r="M56" s="1" t="n"/>
-      <c r="W56" s="39" t="n"/>
-      <c r="X56" s="39" t="n"/>
-      <c r="Y56" s="39" t="n"/>
-      <c r="Z56" s="39" t="n"/>
-      <c r="AA56" s="39" t="n"/>
-      <c r="AB56" s="39" t="n"/>
-      <c r="AC56" s="39" t="n"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1" s="59">
-      <c r="E57" s="39" t="n"/>
-      <c r="F57" s="39" t="n"/>
-      <c r="G57" s="40" t="n"/>
-      <c r="J57" s="39" t="n"/>
-      <c r="K57" s="39" t="n"/>
-      <c r="L57" s="39" t="n"/>
-      <c r="M57" s="1" t="n"/>
-      <c r="W57" s="39" t="n"/>
-      <c r="X57" s="39" t="n"/>
-      <c r="Y57" s="39" t="n"/>
-      <c r="Z57" s="39" t="n"/>
-      <c r="AA57" s="39" t="n"/>
-      <c r="AB57" s="39" t="n"/>
-      <c r="AC57" s="39" t="n"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1" s="59">
-      <c r="E58" s="39" t="n"/>
-      <c r="F58" s="39" t="n"/>
-      <c r="G58" s="40" t="n"/>
-      <c r="J58" s="39" t="n"/>
-      <c r="K58" s="39" t="n"/>
-      <c r="L58" s="39" t="n"/>
-      <c r="M58" s="1" t="n"/>
-      <c r="W58" s="39" t="n"/>
-      <c r="X58" s="39" t="n"/>
-      <c r="Y58" s="39" t="n"/>
-      <c r="Z58" s="39" t="n"/>
-      <c r="AA58" s="39" t="n"/>
-      <c r="AB58" s="39" t="n"/>
-      <c r="AC58" s="39" t="n"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1" s="59">
-      <c r="E59" s="39" t="n"/>
-      <c r="F59" s="39" t="n"/>
-      <c r="G59" s="40" t="n"/>
-      <c r="J59" s="39" t="n"/>
-      <c r="K59" s="39" t="n"/>
-      <c r="L59" s="39" t="n"/>
-      <c r="M59" s="1" t="n"/>
-      <c r="W59" s="39" t="n"/>
-      <c r="X59" s="39" t="n"/>
-      <c r="Y59" s="39" t="n"/>
-      <c r="Z59" s="39" t="n"/>
-      <c r="AA59" s="39" t="n"/>
-      <c r="AB59" s="39" t="n"/>
-      <c r="AC59" s="39" t="n"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1" s="59">
-      <c r="E60" s="39" t="n"/>
-      <c r="F60" s="39" t="n"/>
-      <c r="G60" s="40" t="n"/>
-      <c r="J60" s="39" t="n"/>
-      <c r="K60" s="39" t="n"/>
-      <c r="L60" s="39" t="n"/>
-      <c r="M60" s="1" t="n"/>
-      <c r="W60" s="39" t="n"/>
-      <c r="X60" s="39" t="n"/>
-      <c r="Y60" s="39" t="n"/>
-      <c r="Z60" s="39" t="n"/>
-      <c r="AA60" s="39" t="n"/>
-      <c r="AB60" s="39" t="n"/>
-      <c r="AC60" s="39" t="n"/>
+      <c r="AD60" s="34" t="n"/>
     </row>
     <row r="61" ht="15.75" customHeight="1" s="59">
       <c r="E61" s="39" t="n"/>
@@ -18781,6 +18901,7 @@
       <c r="J991" s="39" t="n"/>
       <c r="K991" s="39" t="n"/>
       <c r="L991" s="39" t="n"/>
+      <c r="M991" s="1" t="n"/>
       <c r="W991" s="39" t="n"/>
       <c r="X991" s="39" t="n"/>
       <c r="Y991" s="39" t="n"/>
@@ -18796,6 +18917,7 @@
       <c r="J992" s="39" t="n"/>
       <c r="K992" s="39" t="n"/>
       <c r="L992" s="39" t="n"/>
+      <c r="M992" s="1" t="n"/>
       <c r="W992" s="39" t="n"/>
       <c r="X992" s="39" t="n"/>
       <c r="Y992" s="39" t="n"/>
@@ -18811,6 +18933,7 @@
       <c r="J993" s="39" t="n"/>
       <c r="K993" s="39" t="n"/>
       <c r="L993" s="39" t="n"/>
+      <c r="M993" s="1" t="n"/>
       <c r="W993" s="39" t="n"/>
       <c r="X993" s="39" t="n"/>
       <c r="Y993" s="39" t="n"/>
@@ -18826,6 +18949,7 @@
       <c r="J994" s="39" t="n"/>
       <c r="K994" s="39" t="n"/>
       <c r="L994" s="39" t="n"/>
+      <c r="M994" s="1" t="n"/>
       <c r="W994" s="39" t="n"/>
       <c r="X994" s="39" t="n"/>
       <c r="Y994" s="39" t="n"/>
@@ -18841,6 +18965,7 @@
       <c r="J995" s="39" t="n"/>
       <c r="K995" s="39" t="n"/>
       <c r="L995" s="39" t="n"/>
+      <c r="M995" s="1" t="n"/>
       <c r="W995" s="39" t="n"/>
       <c r="X995" s="39" t="n"/>
       <c r="Y995" s="39" t="n"/>
@@ -18856,6 +18981,7 @@
       <c r="J996" s="39" t="n"/>
       <c r="K996" s="39" t="n"/>
       <c r="L996" s="39" t="n"/>
+      <c r="M996" s="1" t="n"/>
       <c r="W996" s="39" t="n"/>
       <c r="X996" s="39" t="n"/>
       <c r="Y996" s="39" t="n"/>
@@ -19028,6 +19154,96 @@
       <c r="AA1007" s="39" t="n"/>
       <c r="AB1007" s="39" t="n"/>
       <c r="AC1007" s="39" t="n"/>
+    </row>
+    <row r="1008">
+      <c r="E1008" s="39" t="n"/>
+      <c r="F1008" s="39" t="n"/>
+      <c r="G1008" s="40" t="n"/>
+      <c r="J1008" s="39" t="n"/>
+      <c r="K1008" s="39" t="n"/>
+      <c r="L1008" s="39" t="n"/>
+      <c r="W1008" s="39" t="n"/>
+      <c r="X1008" s="39" t="n"/>
+      <c r="Y1008" s="39" t="n"/>
+      <c r="Z1008" s="39" t="n"/>
+      <c r="AA1008" s="39" t="n"/>
+      <c r="AB1008" s="39" t="n"/>
+      <c r="AC1008" s="39" t="n"/>
+    </row>
+    <row r="1009">
+      <c r="E1009" s="39" t="n"/>
+      <c r="F1009" s="39" t="n"/>
+      <c r="G1009" s="40" t="n"/>
+      <c r="J1009" s="39" t="n"/>
+      <c r="K1009" s="39" t="n"/>
+      <c r="L1009" s="39" t="n"/>
+      <c r="W1009" s="39" t="n"/>
+      <c r="X1009" s="39" t="n"/>
+      <c r="Y1009" s="39" t="n"/>
+      <c r="Z1009" s="39" t="n"/>
+      <c r="AA1009" s="39" t="n"/>
+      <c r="AB1009" s="39" t="n"/>
+      <c r="AC1009" s="39" t="n"/>
+    </row>
+    <row r="1010">
+      <c r="E1010" s="39" t="n"/>
+      <c r="F1010" s="39" t="n"/>
+      <c r="G1010" s="40" t="n"/>
+      <c r="J1010" s="39" t="n"/>
+      <c r="K1010" s="39" t="n"/>
+      <c r="L1010" s="39" t="n"/>
+      <c r="W1010" s="39" t="n"/>
+      <c r="X1010" s="39" t="n"/>
+      <c r="Y1010" s="39" t="n"/>
+      <c r="Z1010" s="39" t="n"/>
+      <c r="AA1010" s="39" t="n"/>
+      <c r="AB1010" s="39" t="n"/>
+      <c r="AC1010" s="39" t="n"/>
+    </row>
+    <row r="1011">
+      <c r="E1011" s="39" t="n"/>
+      <c r="F1011" s="39" t="n"/>
+      <c r="G1011" s="40" t="n"/>
+      <c r="J1011" s="39" t="n"/>
+      <c r="K1011" s="39" t="n"/>
+      <c r="L1011" s="39" t="n"/>
+      <c r="W1011" s="39" t="n"/>
+      <c r="X1011" s="39" t="n"/>
+      <c r="Y1011" s="39" t="n"/>
+      <c r="Z1011" s="39" t="n"/>
+      <c r="AA1011" s="39" t="n"/>
+      <c r="AB1011" s="39" t="n"/>
+      <c r="AC1011" s="39" t="n"/>
+    </row>
+    <row r="1012">
+      <c r="E1012" s="39" t="n"/>
+      <c r="F1012" s="39" t="n"/>
+      <c r="G1012" s="40" t="n"/>
+      <c r="J1012" s="39" t="n"/>
+      <c r="K1012" s="39" t="n"/>
+      <c r="L1012" s="39" t="n"/>
+      <c r="W1012" s="39" t="n"/>
+      <c r="X1012" s="39" t="n"/>
+      <c r="Y1012" s="39" t="n"/>
+      <c r="Z1012" s="39" t="n"/>
+      <c r="AA1012" s="39" t="n"/>
+      <c r="AB1012" s="39" t="n"/>
+      <c r="AC1012" s="39" t="n"/>
+    </row>
+    <row r="1013">
+      <c r="E1013" s="39" t="n"/>
+      <c r="F1013" s="39" t="n"/>
+      <c r="G1013" s="40" t="n"/>
+      <c r="J1013" s="39" t="n"/>
+      <c r="K1013" s="39" t="n"/>
+      <c r="L1013" s="39" t="n"/>
+      <c r="W1013" s="39" t="n"/>
+      <c r="X1013" s="39" t="n"/>
+      <c r="Y1013" s="39" t="n"/>
+      <c r="Z1013" s="39" t="n"/>
+      <c r="AA1013" s="39" t="n"/>
+      <c r="AB1013" s="39" t="n"/>
+      <c r="AC1013" s="39" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO48"/>

--- a/dumps/Stocks/Indian Rail Tour Corp Ltd.xlsx
+++ b/dumps/Stocks/Indian Rail Tour Corp Ltd.xlsx
@@ -745,7 +745,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP996"/>
+  <dimension ref="A1:AP997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="5">
       <c r="A5" s="85" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1111,18 +1111,18 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>633.5</v>
+        <v>623.8</v>
       </c>
       <c r="F5" t="n">
-        <v>6366.7</v>
+        <v>6269.2</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>31.7</v>
+        <v>31.2</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="6">
       <c r="A6" s="85" t="n">
-        <v>46059</v>
+        <v>46063</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>614.5</v>
+        <v>633.5</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3087.85</v>
+        <v>6366.7</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>15.35</v>
+        <v>31.7</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="7">
       <c r="A7" s="85" t="n">
-        <v>46057</v>
+        <v>46059</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1180,21 +1180,21 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>617.5</v>
+        <v>614.5</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>6205.9</v>
+        <v>3087.85</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252611485581</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>30.9</v>
+        <v>15.35</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="8">
       <c r="A8" s="85" t="n">
-        <v>46050</v>
+        <v>46057</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1216,21 +1216,21 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>617.8</v>
+        <v>617.5</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3104.45</v>
+        <v>6205.9</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252611091662</t>
+          <t>CN#252611485581</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>15.45</v>
+        <v>30.9</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="9">
       <c r="A9" s="85" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1252,21 +1252,21 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>614.4</v>
+        <v>617.8</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>6174.7</v>
+        <v>3104.45</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611091662</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>30.7</v>
+        <v>15.45</v>
       </c>
       <c r="J9" s="0">
         <f>Index!$C$2</f>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="10">
       <c r="A10" s="85" t="n">
-        <v>46038</v>
+        <v>46049</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1288,21 +1288,21 @@
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>631.5</v>
+        <v>614.4</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3173.3</v>
+        <v>6174.7</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252610644483</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>15.8</v>
+        <v>30.7</v>
       </c>
       <c r="J10" s="0">
         <f>Index!$C$2</f>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="11">
       <c r="A11" s="85" t="n">
-        <v>46034</v>
+        <v>46038</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1327,18 +1327,18 @@
         <v>5</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>637.3</v>
+        <v>631.5</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3202.45</v>
+        <v>3173.3</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252610644483</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>15.95</v>
+        <v>15.8</v>
       </c>
       <c r="J11" s="0">
         <f>Index!$C$2</f>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="12">
       <c r="A12" s="85" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1363,18 +1363,18 @@
         <v>5</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>655.75</v>
+        <v>637.3</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3295.15</v>
+        <v>3202.45</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252610347614</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>16.4</v>
+        <v>15.95</v>
       </c>
       <c r="J12" s="0">
         <f>Index!$C$2</f>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="13">
       <c r="A13" s="85" t="n">
-        <v>46017</v>
+        <v>46030</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1399,18 +1399,18 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>689.8099999999999</v>
+        <v>655.75</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3466.3</v>
+        <v>3295.15</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>CN#252609810990</t>
+          <t>CN#252610347614</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>17.25</v>
+        <v>16.4</v>
       </c>
       <c r="J13" s="0">
         <f>Index!$C$2</f>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="14">
       <c r="A14" s="85" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1435,18 +1435,18 @@
         <v>5</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>681.7</v>
+        <v>689.8099999999999</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3425.55</v>
+        <v>3466.3</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>CN#252609755521</t>
+          <t>CN#252609810990</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>17.05</v>
+        <v>17.25</v>
       </c>
       <c r="J14" s="0">
         <f>Index!$C$2</f>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="15">
       <c r="A15" s="85" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1471,18 +1471,18 @@
         <v>5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>683.75</v>
+        <v>681.7</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3435.85</v>
+        <v>3425.55</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>CN#252609701573</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
-        <v>17.1</v>
+        <v>17.05</v>
       </c>
       <c r="J15" s="0">
         <f>Index!$C$2</f>
@@ -1491,11 +1491,11 @@
     </row>
     <row r="16">
       <c r="A16" s="85" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -1507,18 +1507,18 @@
         <v>5</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>662.7</v>
+        <v>683.75</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3330.05</v>
+        <v>3435.85</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>CN#252609527272</t>
+          <t>CN#252609701573</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>16.55</v>
+        <v>17.1</v>
       </c>
       <c r="J16" s="0">
         <f>Index!$C$2</f>
@@ -1527,11 +1527,11 @@
     </row>
     <row r="17">
       <c r="A17" s="85" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -1540,21 +1540,21 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>667.35</v>
+        <v>662.7</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>6706.9</v>
+        <v>3330.05</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>CN#252609476500</t>
+          <t>CN#252609527272</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>33.4</v>
+        <v>16.55</v>
       </c>
       <c r="J17" s="0">
         <f>Index!$C$2</f>
@@ -1563,11 +1563,11 @@
     </row>
     <row r="18">
       <c r="A18" s="85" t="n">
-        <v>46002</v>
+        <v>46008</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -1576,21 +1576,21 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>667.85</v>
+        <v>667.35</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3355.95</v>
+        <v>6706.9</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>CN#252609267726</t>
+          <t>CN#252609476500</t>
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>16.7</v>
+        <v>33.4</v>
       </c>
       <c r="J18" s="0">
         <f>Index!$C$2</f>
@@ -1599,11 +1599,11 @@
     </row>
     <row r="19">
       <c r="A19" s="85" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -1612,21 +1612,21 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>671.15</v>
+        <v>667.85</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>6745.1</v>
+        <v>3355.95</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>CN#252609039305</t>
+          <t>CN#252609267726</t>
         </is>
       </c>
       <c r="I19" s="0" t="n">
-        <v>33.6</v>
+        <v>16.7</v>
       </c>
       <c r="J19" s="0">
         <f>Index!$C$2</f>
@@ -1635,11 +1635,11 @@
     </row>
     <row r="20">
       <c r="A20" s="85" t="n">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -1648,21 +1648,21 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>682.3</v>
+        <v>671.15</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>3428.55</v>
+        <v>6745.1</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>CN#252608877522</t>
+          <t>CN#252609039305</t>
         </is>
       </c>
       <c r="I20" s="0" t="n">
-        <v>17.05</v>
+        <v>33.6</v>
       </c>
       <c r="J20" s="0">
         <f>Index!$C$2</f>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="21">
       <c r="A21" s="85" t="n">
-        <v>45988</v>
+        <v>45993</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -1687,18 +1687,18 @@
         <v>5</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>692.97</v>
+        <v>682.3</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>3482.17</v>
+        <v>3428.55</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>CN#252608703866</t>
+          <t>CN#252608877522</t>
         </is>
       </c>
       <c r="I21" s="0" t="n">
-        <v>17.32</v>
+        <v>17.05</v>
       </c>
       <c r="J21" s="0">
         <f>Index!$C$2</f>
@@ -1707,11 +1707,11 @@
     </row>
     <row r="22">
       <c r="A22" s="85" t="n">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1723,18 +1723,18 @@
         <v>5</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>695</v>
+        <v>692.97</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>3492.4</v>
+        <v>3482.17</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
-          <t>CN#252608495287</t>
+          <t>CN#252608703866</t>
         </is>
       </c>
       <c r="I22" s="0" t="n">
-        <v>17.4</v>
+        <v>17.32</v>
       </c>
       <c r="J22" s="0">
         <f>Index!$C$2</f>
@@ -1743,11 +1743,11 @@
     </row>
     <row r="23">
       <c r="A23" s="85" t="n">
-        <v>45978</v>
+        <v>45982</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -1759,18 +1759,18 @@
         <v>5</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>3592.9</v>
+        <v>3492.4</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252608495287</t>
         </is>
       </c>
       <c r="I23" s="0" t="n">
-        <v>17.9</v>
+        <v>17.4</v>
       </c>
       <c r="J23" s="0">
         <f>Index!$C$2</f>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="24">
       <c r="A24" s="85" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
@@ -1795,18 +1795,18 @@
         <v>5</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>703.8</v>
+        <v>715</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>3536.6</v>
+        <v>3592.9</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
-          <t>CN#252608199734</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I24" s="0" t="n">
-        <v>17.6</v>
+        <v>17.9</v>
       </c>
       <c r="J24" s="0">
         <f>Index!$C$2</f>
@@ -1815,11 +1815,11 @@
     </row>
     <row r="25">
       <c r="A25" s="85" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
@@ -1831,18 +1831,18 @@
         <v>5</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>710.5</v>
+        <v>703.8</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>3570.25</v>
+        <v>3536.6</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
-          <t>CN#252608142538</t>
+          <t>CN#252608199734</t>
         </is>
       </c>
       <c r="I25" s="0" t="n">
-        <v>17.75</v>
+        <v>17.6</v>
       </c>
       <c r="J25" s="0">
         <f>Index!$C$2</f>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="26">
       <c r="A26" s="85" t="n">
-        <v>45968</v>
+        <v>45974</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
@@ -1867,18 +1867,18 @@
         <v>5</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>700.95</v>
+        <v>710.5</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>3522.25</v>
+        <v>3570.25</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
-          <t>CN#252607899666</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
       <c r="I26" s="0" t="n">
-        <v>17.5</v>
+        <v>17.75</v>
       </c>
       <c r="J26" s="0">
         <f>Index!$C$2</f>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="27">
       <c r="A27" s="85" t="n">
-        <v>45959</v>
+        <v>45968</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
@@ -1903,18 +1903,18 @@
         <v>5</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>725.15</v>
+        <v>700.95</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>3643.9</v>
+        <v>3522.25</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252607899666</t>
         </is>
       </c>
       <c r="I27" s="0" t="n">
-        <v>18.15</v>
+        <v>17.5</v>
       </c>
       <c r="J27" s="0">
         <f>Index!$C$2</f>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="28">
       <c r="A28" s="85" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
@@ -1939,125 +1939,63 @@
         <v>5</v>
       </c>
       <c r="E28" s="0" t="n">
+        <v>725.15</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>3643.9</v>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607497001</t>
+        </is>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="J28" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="85" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" s="0" t="n">
         <v>722.4</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>3630.05</v>
       </c>
-      <c r="G28" s="0" t="inlineStr">
+      <c r="G29" s="0" t="inlineStr">
         <is>
           <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I29" s="0" t="n">
         <v>18.05</v>
       </c>
-      <c r="J28" s="0">
+      <c r="J29" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B29" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C29" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D29" s="40" t="n">
-        <v>5</v>
-      </c>
-      <c r="E29" s="41" t="n">
-        <v>731.85</v>
-      </c>
-      <c r="F29" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G29" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H29" s="40" t="n"/>
-      <c r="I29" s="40" t="n"/>
-      <c r="J29" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K29" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L29" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M29" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N29" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O29" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P29" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q29" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R29" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S29" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T29" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U29" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V29" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W29" s="44" t="n"/>
-      <c r="X29" s="44" t="n"/>
-      <c r="Y29" s="43">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z29" s="44" t="n"/>
-      <c r="AA29" s="44" t="n"/>
-      <c r="AB29" s="45" t="n"/>
-      <c r="AC29" s="46">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD29" s="47" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B30" s="39" t="inlineStr">
         <is>
@@ -2070,13 +2008,13 @@
         </is>
       </c>
       <c r="D30" s="40" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E30" s="41" t="n">
-        <v>723.59</v>
+        <v>731.85</v>
       </c>
       <c r="F30" s="41">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G30" s="39" t="inlineStr">
@@ -2091,71 +2029,71 @@
         <v/>
       </c>
       <c r="K30" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L30" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M30" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N30" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O30" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P30" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R30" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S30" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T30" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U30" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V30" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W30" s="44" t="n"/>
       <c r="X30" s="44" t="n"/>
       <c r="Y30" s="43">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z30" s="44" t="n"/>
       <c r="AA30" s="44" t="n"/>
       <c r="AB30" s="45" t="n"/>
       <c r="AC30" s="46">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD30" s="47" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="38" t="n">
-        <v>45903</v>
+        <v>45947</v>
       </c>
       <c r="B31" s="39" t="inlineStr">
         <is>
@@ -2168,95 +2106,92 @@
         </is>
       </c>
       <c r="D31" s="40" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E31" s="41" t="n">
-        <v>716.8</v>
-      </c>
-      <c r="F31" s="41" t="n">
-        <v>3583.98</v>
+        <v>723.59</v>
+      </c>
+      <c r="F31" s="41">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G31" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H31" s="40" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="I31" s="40" t="n">
-        <v>21.66</v>
-      </c>
+      <c r="H31" s="40" t="n"/>
+      <c r="I31" s="40" t="n"/>
       <c r="J31" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K31" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L31" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M31" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N31" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O31" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P31" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R31" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S31" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T31" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U31" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V31" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W31" s="44" t="n"/>
       <c r="X31" s="44" t="n"/>
       <c r="Y31" s="43">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z31" s="44" t="n"/>
       <c r="AA31" s="44" t="n"/>
       <c r="AB31" s="45" t="n"/>
       <c r="AC31" s="46">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD31" s="47" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="38" t="n">
-        <v>45897</v>
+        <v>45903</v>
       </c>
       <c r="B32" s="39" t="inlineStr">
         <is>
@@ -2269,13 +2204,13 @@
         </is>
       </c>
       <c r="D32" s="40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E32" s="41" t="n">
-        <v>714.49</v>
+        <v>716.8</v>
       </c>
       <c r="F32" s="41" t="n">
-        <v>1428.97</v>
+        <v>3583.98</v>
       </c>
       <c r="G32" s="39" t="inlineStr">
         <is>
@@ -2283,85 +2218,85 @@
         </is>
       </c>
       <c r="H32" s="40" t="n">
-        <v>1.42</v>
+        <v>3.57</v>
       </c>
       <c r="I32" s="40" t="n">
-        <v>8.65</v>
+        <v>21.66</v>
       </c>
       <c r="J32" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K32" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L32" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M32" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N32" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O32" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P32" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q32" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R32" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S32" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T32" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U32" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V32" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W32" s="44" t="n"/>
       <c r="X32" s="44" t="n"/>
       <c r="Y32" s="43">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z32" s="44" t="n"/>
       <c r="AA32" s="44" t="n"/>
       <c r="AB32" s="45" t="n"/>
       <c r="AC32" s="46">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD32" s="47" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="38" t="n">
-        <v>45891</v>
+        <v>45897</v>
       </c>
       <c r="B33" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C33" s="39" t="inlineStr">
@@ -2370,99 +2305,99 @@
         </is>
       </c>
       <c r="D33" s="40" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E33" s="41" t="n">
-        <v>1</v>
+        <v>714.49</v>
       </c>
       <c r="F33" s="41" t="n">
-        <v>60</v>
+        <v>1428.97</v>
       </c>
       <c r="G33" s="39" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.1.0000/- per share on Ex-Date: 22-AUG-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H33" s="40" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="I33" s="40" t="n">
-        <v>0</v>
+        <v>8.65</v>
       </c>
       <c r="J33" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K33" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L33" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M33" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N33" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O33" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P33" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q33" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R33" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S33" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T33" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U33" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V33" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W33" s="44" t="n"/>
       <c r="X33" s="44" t="n"/>
       <c r="Y33" s="43">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z33" s="44" t="n"/>
       <c r="AA33" s="44" t="n"/>
       <c r="AB33" s="45" t="n"/>
       <c r="AC33" s="46">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD33" s="47" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="38" t="n">
-        <v>45855</v>
+        <v>45891</v>
       </c>
       <c r="B34" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C34" s="39" t="inlineStr">
@@ -2471,95 +2406,95 @@
         </is>
       </c>
       <c r="D34" s="40" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E34" s="41" t="n">
-        <v>781.8</v>
+        <v>1</v>
       </c>
       <c r="F34" s="41" t="n">
-        <v>3909</v>
+        <v>60</v>
       </c>
       <c r="G34" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.1.0000/- per share on Ex-Date: 22-AUG-2025</t>
         </is>
       </c>
       <c r="H34" s="40" t="n">
-        <v>3.88</v>
+        <v>0</v>
       </c>
       <c r="I34" s="40" t="n">
-        <v>23.62</v>
+        <v>0</v>
       </c>
       <c r="J34" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K34" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L34" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M34" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N34" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O34" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P34" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q34" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R34" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S34" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T34" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U34" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V34" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W34" s="44" t="n"/>
       <c r="X34" s="44" t="n"/>
       <c r="Y34" s="43">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z34" s="44" t="n"/>
       <c r="AA34" s="44" t="n"/>
       <c r="AB34" s="45" t="n"/>
       <c r="AC34" s="46">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD34" s="47" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="38" t="n">
-        <v>45820</v>
+        <v>45855</v>
       </c>
       <c r="B35" s="39" t="inlineStr">
         <is>
@@ -2575,10 +2510,10 @@
         <v>5</v>
       </c>
       <c r="E35" s="41" t="n">
-        <v>790.15</v>
+        <v>781.8</v>
       </c>
       <c r="F35" s="41" t="n">
-        <v>3950.75</v>
+        <v>3909</v>
       </c>
       <c r="G35" s="39" t="inlineStr">
         <is>
@@ -2586,81 +2521,81 @@
         </is>
       </c>
       <c r="H35" s="40" t="n">
-        <v>3.91</v>
+        <v>3.88</v>
       </c>
       <c r="I35" s="40" t="n">
-        <v>23.84</v>
+        <v>23.62</v>
       </c>
       <c r="J35" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K35" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L35" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M35" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N35" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O35" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P35" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q35" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R35" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S35" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T35" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U35" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V35" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W35" s="44" t="n"/>
       <c r="X35" s="44" t="n"/>
       <c r="Y35" s="43">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z35" s="44" t="n"/>
       <c r="AA35" s="44" t="n"/>
       <c r="AB35" s="45" t="n"/>
       <c r="AC35" s="46">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD35" s="47" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="38" t="n">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="B36" s="39" t="inlineStr">
         <is>
@@ -2673,13 +2608,13 @@
         </is>
       </c>
       <c r="D36" s="40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E36" s="41" t="n">
-        <v>776.91</v>
+        <v>790.15</v>
       </c>
       <c r="F36" s="41" t="n">
-        <v>1553.82</v>
+        <v>3950.75</v>
       </c>
       <c r="G36" s="39" t="inlineStr">
         <is>
@@ -2687,74 +2622,74 @@
         </is>
       </c>
       <c r="H36" s="40" t="n">
-        <v>1.54</v>
+        <v>3.91</v>
       </c>
       <c r="I36" s="40" t="n">
-        <v>9.380000000000001</v>
+        <v>23.84</v>
       </c>
       <c r="J36" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K36" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L36" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M36" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N36" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O36" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P36" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R36" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S36" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T36" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U36" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V36" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W36" s="44" t="n"/>
       <c r="X36" s="44" t="n"/>
       <c r="Y36" s="43">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z36" s="44" t="n"/>
       <c r="AA36" s="44" t="n"/>
       <c r="AB36" s="45" t="n"/>
       <c r="AC36" s="46">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD36" s="47" t="n"/>
@@ -2774,13 +2709,13 @@
         </is>
       </c>
       <c r="D37" s="40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E37" s="41" t="n">
-        <v>776.92</v>
+        <v>776.91</v>
       </c>
       <c r="F37" s="41" t="n">
-        <v>3884.62</v>
+        <v>1553.82</v>
       </c>
       <c r="G37" s="39" t="inlineStr">
         <is>
@@ -2788,182 +2723,182 @@
         </is>
       </c>
       <c r="H37" s="40" t="n">
-        <v>3.86</v>
+        <v>1.54</v>
       </c>
       <c r="I37" s="40" t="n">
-        <v>23.51</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="J37" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L37" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M37" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N37" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O37" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P37" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R37" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S37" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T37" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U37" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V37" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W37" s="44" t="n"/>
       <c r="X37" s="44" t="n"/>
       <c r="Y37" s="43">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z37" s="44" t="n"/>
       <c r="AA37" s="44" t="n"/>
       <c r="AB37" s="45" t="n"/>
       <c r="AC37" s="46">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD37" s="47" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="48" t="n">
-        <v>45716</v>
-      </c>
-      <c r="B38" s="49" t="inlineStr">
+      <c r="A38" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B38" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C38" s="49" t="inlineStr">
+      <c r="C38" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D38" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="E38" s="51" t="n">
-        <v>680.1900000000001</v>
-      </c>
-      <c r="F38" s="51" t="n">
-        <v>2040.56</v>
-      </c>
-      <c r="G38" s="49" t="inlineStr">
+      <c r="D38" s="40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" s="41" t="n">
+        <v>776.92</v>
+      </c>
+      <c r="F38" s="41" t="n">
+        <v>3884.62</v>
+      </c>
+      <c r="G38" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H38" s="50" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I38" s="50" t="n">
-        <v>12.34</v>
+      <c r="H38" s="40" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="I38" s="40" t="n">
+        <v>23.51</v>
       </c>
       <c r="J38" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L38" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M38" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N38" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O38" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P38" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R38" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S38" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T38" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U38" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V38" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W38" s="44" t="n"/>
       <c r="X38" s="44" t="n"/>
       <c r="Y38" s="43">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z38" s="44" t="n"/>
       <c r="AA38" s="44" t="n"/>
       <c r="AB38" s="45" t="n"/>
       <c r="AC38" s="46">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD38" s="47" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="48" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B39" s="49" t="inlineStr">
         <is>
@@ -2976,13 +2911,13 @@
         </is>
       </c>
       <c r="D39" s="50" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E39" s="51" t="n">
-        <v>728.63</v>
+        <v>680.1900000000001</v>
       </c>
       <c r="F39" s="51" t="n">
-        <v>5100.4</v>
+        <v>2040.56</v>
       </c>
       <c r="G39" s="49" t="inlineStr">
         <is>
@@ -2990,74 +2925,74 @@
         </is>
       </c>
       <c r="H39" s="50" t="n">
-        <v>5.06</v>
+        <v>2.02</v>
       </c>
       <c r="I39" s="50" t="n">
-        <v>30.84</v>
+        <v>12.34</v>
       </c>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L39" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M39" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N39" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O39" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P39" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R39" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S39" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T39" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U39" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V39" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W39" s="44" t="n"/>
       <c r="X39" s="44" t="n"/>
       <c r="Y39" s="43">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z39" s="44" t="n"/>
       <c r="AA39" s="44" t="n"/>
       <c r="AB39" s="45" t="n"/>
       <c r="AC39" s="46">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD39" s="47" t="n"/>
@@ -3077,13 +3012,13 @@
         </is>
       </c>
       <c r="D40" s="50" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E40" s="51" t="n">
-        <v>728.64</v>
+        <v>728.63</v>
       </c>
       <c r="F40" s="51" t="n">
-        <v>2185.91</v>
+        <v>5100.4</v>
       </c>
       <c r="G40" s="49" t="inlineStr">
         <is>
@@ -3091,81 +3026,81 @@
         </is>
       </c>
       <c r="H40" s="50" t="n">
-        <v>2.17</v>
+        <v>5.06</v>
       </c>
       <c r="I40" s="50" t="n">
-        <v>13.24</v>
+        <v>30.84</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L40" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M40" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N40" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O40" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P40" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R40" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S40" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T40" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U40" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V40" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W40" s="44" t="n"/>
       <c r="X40" s="44" t="n"/>
       <c r="Y40" s="43">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z40" s="44" t="n"/>
       <c r="AA40" s="44" t="n"/>
       <c r="AB40" s="45" t="n"/>
       <c r="AC40" s="46">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD40" s="47" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="48" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B41" s="49" t="inlineStr">
         <is>
@@ -3178,13 +3113,13 @@
         </is>
       </c>
       <c r="D41" s="50" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E41" s="51" t="n">
-        <v>730.14</v>
+        <v>728.64</v>
       </c>
       <c r="F41" s="51" t="n">
-        <v>14602.86</v>
+        <v>2185.91</v>
       </c>
       <c r="G41" s="49" t="inlineStr">
         <is>
@@ -3192,81 +3127,81 @@
         </is>
       </c>
       <c r="H41" s="50" t="n">
-        <v>14.48</v>
+        <v>2.17</v>
       </c>
       <c r="I41" s="50" t="n">
-        <v>88.38</v>
+        <v>13.24</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L41" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M41" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N41" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O41" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P41" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R41" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S41" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T41" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U41" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V41" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W41" s="44" t="n"/>
       <c r="X41" s="44" t="n"/>
       <c r="Y41" s="43">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z41" s="44" t="n"/>
       <c r="AA41" s="44" t="n"/>
       <c r="AB41" s="45" t="n"/>
       <c r="AC41" s="46">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD41" s="47" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="48" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B42" s="49" t="inlineStr">
         <is>
@@ -3279,13 +3214,13 @@
         </is>
       </c>
       <c r="D42" s="50" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E42" s="51" t="n">
-        <v>763.17</v>
+        <v>730.14</v>
       </c>
       <c r="F42" s="51" t="n">
-        <v>1526.34</v>
+        <v>14602.86</v>
       </c>
       <c r="G42" s="49" t="inlineStr">
         <is>
@@ -3293,74 +3228,74 @@
         </is>
       </c>
       <c r="H42" s="50" t="n">
-        <v>1.52</v>
+        <v>14.48</v>
       </c>
       <c r="I42" s="50" t="n">
-        <v>9.220000000000001</v>
+        <v>88.38</v>
       </c>
       <c r="J42" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L42" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M42" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N42" s="45">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O42" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P42" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R42" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S42" s="43">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T42" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U42" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V42" s="44">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W42" s="44" t="n"/>
       <c r="X42" s="44" t="n"/>
       <c r="Y42" s="43">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z42" s="44" t="n"/>
       <c r="AA42" s="44" t="n"/>
       <c r="AB42" s="45" t="n"/>
       <c r="AC42" s="46">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD42" s="47" t="n"/>
@@ -3380,13 +3315,13 @@
         </is>
       </c>
       <c r="D43" s="50" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E43" s="51" t="n">
         <v>763.17</v>
       </c>
       <c r="F43" s="51" t="n">
-        <v>6105.37</v>
+        <v>1526.34</v>
       </c>
       <c r="G43" s="49" t="inlineStr">
         <is>
@@ -3394,93 +3329,178 @@
         </is>
       </c>
       <c r="H43" s="50" t="n">
-        <v>6.06</v>
+        <v>1.52</v>
       </c>
       <c r="I43" s="50" t="n">
-        <v>36.91</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="J43" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L43" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M43" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N43" s="45">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O43" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P43" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R43" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S43" s="43">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T43" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U43" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V43" s="44">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W43" s="44" t="n"/>
       <c r="X43" s="44" t="n"/>
       <c r="Y43" s="43">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z43" s="44" t="n"/>
       <c r="AA43" s="44" t="n"/>
       <c r="AB43" s="45" t="n"/>
       <c r="AC43" s="46">
+        <f>if(B18="DIV", F18,"")</f>
+        <v/>
+      </c>
+      <c r="AD43" s="47" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="48" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B44" s="49" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C44" s="49" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D44" s="50" t="n">
+        <v>8</v>
+      </c>
+      <c r="E44" s="51" t="n">
+        <v>763.17</v>
+      </c>
+      <c r="F44" s="51" t="n">
+        <v>6105.37</v>
+      </c>
+      <c r="G44" s="49" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H44" s="50" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="I44" s="50" t="n">
+        <v>36.91</v>
+      </c>
+      <c r="J44" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K44" s="43">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="L44" s="44">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <v/>
+      </c>
+      <c r="M44" s="44">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <v/>
+      </c>
+      <c r="N44" s="45">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <v/>
+      </c>
+      <c r="O44" s="43">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="P44" s="44">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <v/>
+      </c>
+      <c r="Q44" s="44">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <v/>
+      </c>
+      <c r="R44" s="44">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <v/>
+      </c>
+      <c r="S44" s="43">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="T44" s="44">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <v/>
+      </c>
+      <c r="U44" s="44">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <v/>
+      </c>
+      <c r="V44" s="44">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <v/>
+      </c>
+      <c r="W44" s="44" t="n"/>
+      <c r="X44" s="44" t="n"/>
+      <c r="Y44" s="43">
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="Z44" s="44" t="n"/>
+      <c r="AA44" s="44" t="n"/>
+      <c r="AB44" s="45" t="n"/>
+      <c r="AC44" s="46">
         <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
-      <c r="AD43" s="47" t="n"/>
-    </row>
-    <row r="44">
-      <c r="E44" s="52" t="n"/>
-      <c r="F44" s="52" t="n"/>
-      <c r="G44" s="53" t="n"/>
-      <c r="J44" s="52" t="n"/>
-      <c r="K44" s="52" t="n"/>
-      <c r="L44" s="52" t="n"/>
-      <c r="M44" s="55" t="n"/>
-      <c r="W44" s="52" t="n"/>
-      <c r="X44" s="52" t="n"/>
-      <c r="Y44" s="52" t="n"/>
-      <c r="Z44" s="52" t="n"/>
-      <c r="AA44" s="52" t="n"/>
-      <c r="AB44" s="52" t="n"/>
-      <c r="AC44" s="52" t="n"/>
+      <c r="AD44" s="47" t="n"/>
     </row>
     <row r="45">
       <c r="E45" s="52" t="n"/>
@@ -18449,6 +18469,7 @@
       <c r="J980" s="52" t="n"/>
       <c r="K980" s="52" t="n"/>
       <c r="L980" s="52" t="n"/>
+      <c r="M980" s="55" t="n"/>
       <c r="W980" s="52" t="n"/>
       <c r="X980" s="52" t="n"/>
       <c r="Y980" s="52" t="n"/>
@@ -18696,6 +18717,21 @@
       <c r="AA996" s="52" t="n"/>
       <c r="AB996" s="52" t="n"/>
       <c r="AC996" s="52" t="n"/>
+    </row>
+    <row r="997">
+      <c r="E997" s="52" t="n"/>
+      <c r="F997" s="52" t="n"/>
+      <c r="G997" s="53" t="n"/>
+      <c r="J997" s="52" t="n"/>
+      <c r="K997" s="52" t="n"/>
+      <c r="L997" s="52" t="n"/>
+      <c r="W997" s="52" t="n"/>
+      <c r="X997" s="52" t="n"/>
+      <c r="Y997" s="52" t="n"/>
+      <c r="Z997" s="52" t="n"/>
+      <c r="AA997" s="52" t="n"/>
+      <c r="AB997" s="52" t="n"/>
+      <c r="AC997" s="52" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$49"/>

--- a/dumps/Stocks/Indian Rail Tour Corp Ltd.xlsx
+++ b/dumps/Stocks/Indian Rail Tour Corp Ltd.xlsx
@@ -707,7 +707,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP999"/>
+  <dimension ref="A1:AP1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="60">
       <c r="A5" s="71" t="n">
-        <v>46066</v>
+        <v>46069</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1073,21 +1073,21 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>623</v>
+        <v>614.65</v>
       </c>
       <c r="F5" t="n">
-        <v>3136.97</v>
+        <v>3094.92</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611910666</t>
+          <t>CN#252611972212</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3.1466</v>
+        <v>3.092</v>
       </c>
       <c r="I5" t="n">
-        <v>18.8264</v>
+        <v>18.5805</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1095,12 +1095,12 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="60">
-      <c r="A6" s="58" t="n">
-        <v>46062</v>
+      <c r="A6" s="71" t="n">
+        <v>46066</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1109,21 +1109,24 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>623.8</v>
+        <v>623</v>
       </c>
       <c r="F6" t="n">
-        <v>6269.2</v>
+        <v>3136.97</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252611910666</t>
         </is>
       </c>
+      <c r="H6" t="n">
+        <v>3.1466</v>
+      </c>
       <c r="I6" t="n">
-        <v>31.2</v>
+        <v>18.8264</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -1132,7 +1135,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1" s="60">
       <c r="A7" s="58" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1148,18 +1151,18 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>633.5</v>
+        <v>623.8</v>
       </c>
       <c r="F7" t="n">
-        <v>6366.7</v>
+        <v>6269.2</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>31.7</v>
+        <v>31.2</v>
       </c>
       <c r="J7">
         <f>Index!$C$2</f>
@@ -1168,7 +1171,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1" s="60">
       <c r="A8" s="58" t="n">
-        <v>46059</v>
+        <v>46063</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1181,21 +1184,21 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>614.5</v>
+        <v>633.5</v>
       </c>
       <c r="F8" t="n">
-        <v>3087.85</v>
+        <v>6366.7</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>15.35</v>
+        <v>31.7</v>
       </c>
       <c r="J8">
         <f>Index!$C$2</f>
@@ -1204,7 +1207,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1" s="60">
       <c r="A9" s="58" t="n">
-        <v>46057</v>
+        <v>46059</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1217,21 +1220,21 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>617.5</v>
+        <v>614.5</v>
       </c>
       <c r="F9" t="n">
-        <v>6205.9</v>
+        <v>3087.85</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CN#252611485581</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>30.9</v>
+        <v>15.35</v>
       </c>
       <c r="J9">
         <f>Index!$C$2</f>
@@ -1240,7 +1243,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1" s="60">
       <c r="A10" s="58" t="n">
-        <v>46050</v>
+        <v>46057</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1253,21 +1256,21 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>617.8</v>
+        <v>617.5</v>
       </c>
       <c r="F10" t="n">
-        <v>3104.45</v>
+        <v>6205.9</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CN#252611091662</t>
+          <t>CN#252611485581</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>15.45</v>
+        <v>30.9</v>
       </c>
       <c r="J10">
         <f>Index!$C$2</f>
@@ -1276,7 +1279,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1" s="60">
       <c r="A11" s="58" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1289,21 +1292,21 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>614.4</v>
+        <v>617.8</v>
       </c>
       <c r="F11" t="n">
-        <v>6174.7</v>
+        <v>3104.45</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611091662</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>30.7</v>
+        <v>15.45</v>
       </c>
       <c r="J11">
         <f>Index!$C$2</f>
@@ -1312,7 +1315,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1" s="60">
       <c r="A12" s="58" t="n">
-        <v>46038</v>
+        <v>46049</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1325,21 +1328,21 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>631.5</v>
+        <v>614.4</v>
       </c>
       <c r="F12" t="n">
-        <v>3173.3</v>
+        <v>6174.7</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CN#252610644483</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>15.8</v>
+        <v>30.7</v>
       </c>
       <c r="J12">
         <f>Index!$C$2</f>
@@ -1348,7 +1351,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1" s="60">
       <c r="A13" s="58" t="n">
-        <v>46034</v>
+        <v>46038</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1364,18 +1367,18 @@
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>637.3</v>
+        <v>631.5</v>
       </c>
       <c r="F13" t="n">
-        <v>3202.45</v>
+        <v>3173.3</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252610644483</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>15.95</v>
+        <v>15.8</v>
       </c>
       <c r="J13">
         <f>Index!$C$2</f>
@@ -1384,7 +1387,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1" s="60">
       <c r="A14" s="58" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1400,18 +1403,18 @@
         <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>655.75</v>
+        <v>637.3</v>
       </c>
       <c r="F14" t="n">
-        <v>3295.15</v>
+        <v>3202.45</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>CN#252610347614</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>16.4</v>
+        <v>15.95</v>
       </c>
       <c r="J14">
         <f>Index!$C$2</f>
@@ -1420,7 +1423,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1" s="60">
       <c r="A15" s="58" t="n">
-        <v>46017</v>
+        <v>46030</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1436,18 +1439,18 @@
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>689.8099999999999</v>
+        <v>655.75</v>
       </c>
       <c r="F15" t="n">
-        <v>3466.3</v>
+        <v>3295.15</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CN#252609810990</t>
+          <t>CN#252610347614</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>17.25</v>
+        <v>16.4</v>
       </c>
       <c r="J15">
         <f>Index!$C$2</f>
@@ -1456,7 +1459,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1" s="60">
       <c r="A16" s="58" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1472,18 +1475,18 @@
         <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>681.7</v>
+        <v>689.8099999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>3425.55</v>
+        <v>3466.3</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CN#252609755521</t>
+          <t>CN#252609810990</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>17.05</v>
+        <v>17.25</v>
       </c>
       <c r="J16">
         <f>Index!$C$2</f>
@@ -1492,7 +1495,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1" s="60">
       <c r="A17" s="58" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1508,18 +1511,18 @@
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>683.75</v>
+        <v>681.7</v>
       </c>
       <c r="F17" t="n">
-        <v>3435.85</v>
+        <v>3425.55</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CN#252609701573</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>17.1</v>
+        <v>17.05</v>
       </c>
       <c r="J17">
         <f>Index!$C$2</f>
@@ -1528,11 +1531,11 @@
     </row>
     <row r="18" ht="15.75" customHeight="1" s="60">
       <c r="A18" s="58" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1544,18 +1547,18 @@
         <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>662.7</v>
+        <v>683.75</v>
       </c>
       <c r="F18" t="n">
-        <v>3330.05</v>
+        <v>3435.85</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CN#252609527272</t>
+          <t>CN#252609701573</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>16.55</v>
+        <v>17.1</v>
       </c>
       <c r="J18">
         <f>Index!$C$2</f>
@@ -1564,11 +1567,11 @@
     </row>
     <row r="19" ht="15.75" customHeight="1" s="60">
       <c r="A19" s="58" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1577,21 +1580,21 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>667.35</v>
+        <v>662.7</v>
       </c>
       <c r="F19" t="n">
-        <v>6706.9</v>
+        <v>3330.05</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CN#252609476500</t>
+          <t>CN#252609527272</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>33.4</v>
+        <v>16.55</v>
       </c>
       <c r="J19">
         <f>Index!$C$2</f>
@@ -1600,11 +1603,11 @@
     </row>
     <row r="20" ht="15.75" customHeight="1" s="60">
       <c r="A20" s="58" t="n">
-        <v>46002</v>
+        <v>46008</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1613,21 +1616,21 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>667.85</v>
+        <v>667.35</v>
       </c>
       <c r="F20" t="n">
-        <v>3355.95</v>
+        <v>6706.9</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CN#252609267726</t>
+          <t>CN#252609476500</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>16.7</v>
+        <v>33.4</v>
       </c>
       <c r="J20">
         <f>Index!$C$2</f>
@@ -1636,11 +1639,11 @@
     </row>
     <row r="21" ht="15.75" customHeight="1" s="60">
       <c r="A21" s="58" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1649,21 +1652,21 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>671.15</v>
+        <v>667.85</v>
       </c>
       <c r="F21" t="n">
-        <v>6745.1</v>
+        <v>3355.95</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CN#252609039305</t>
+          <t>CN#252609267726</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>33.6</v>
+        <v>16.7</v>
       </c>
       <c r="J21">
         <f>Index!$C$2</f>
@@ -1672,11 +1675,11 @@
     </row>
     <row r="22" ht="15.75" customHeight="1" s="60">
       <c r="A22" s="58" t="n">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1685,21 +1688,21 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>682.3</v>
+        <v>671.15</v>
       </c>
       <c r="F22" t="n">
-        <v>3428.55</v>
+        <v>6745.1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CN#252608877522</t>
+          <t>CN#252609039305</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>17.05</v>
+        <v>33.6</v>
       </c>
       <c r="J22">
         <f>Index!$C$2</f>
@@ -1708,7 +1711,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1" s="60">
       <c r="A23" s="58" t="n">
-        <v>45988</v>
+        <v>45993</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1724,18 +1727,18 @@
         <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>692.97</v>
+        <v>682.3</v>
       </c>
       <c r="F23" t="n">
-        <v>3482.17</v>
+        <v>3428.55</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>CN#252608703866</t>
+          <t>CN#252608877522</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>17.32</v>
+        <v>17.05</v>
       </c>
       <c r="J23">
         <f>Index!$C$2</f>
@@ -1744,11 +1747,11 @@
     </row>
     <row r="24" ht="15.75" customHeight="1" s="60">
       <c r="A24" s="58" t="n">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1760,18 +1763,18 @@
         <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>695</v>
+        <v>692.97</v>
       </c>
       <c r="F24" t="n">
-        <v>3492.4</v>
+        <v>3482.17</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>CN#252608495287</t>
+          <t>CN#252608703866</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>17.4</v>
+        <v>17.32</v>
       </c>
       <c r="J24">
         <f>Index!$C$2</f>
@@ -1780,11 +1783,11 @@
     </row>
     <row r="25" ht="15.75" customHeight="1" s="60">
       <c r="A25" s="58" t="n">
-        <v>45978</v>
+        <v>45982</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1796,18 +1799,18 @@
         <v>5</v>
       </c>
       <c r="E25" t="n">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="F25" t="n">
-        <v>3592.9</v>
+        <v>3492.4</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252608495287</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>17.9</v>
+        <v>17.4</v>
       </c>
       <c r="J25">
         <f>Index!$C$2</f>
@@ -1816,7 +1819,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1" s="60">
       <c r="A26" s="58" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1832,18 +1835,18 @@
         <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>703.8</v>
+        <v>715</v>
       </c>
       <c r="F26" t="n">
-        <v>3536.6</v>
+        <v>3592.9</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CN#252608199734</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>17.6</v>
+        <v>17.9</v>
       </c>
       <c r="J26">
         <f>Index!$C$2</f>
@@ -1852,11 +1855,11 @@
     </row>
     <row r="27" ht="15.75" customHeight="1" s="60">
       <c r="A27" s="58" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1868,18 +1871,18 @@
         <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>710.5</v>
+        <v>703.8</v>
       </c>
       <c r="F27" t="n">
-        <v>3570.25</v>
+        <v>3536.6</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>CN#252608142538</t>
+          <t>CN#252608199734</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>17.75</v>
+        <v>17.6</v>
       </c>
       <c r="J27">
         <f>Index!$C$2</f>
@@ -1888,7 +1891,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1" s="60">
       <c r="A28" s="58" t="n">
-        <v>45968</v>
+        <v>45974</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1904,18 +1907,18 @@
         <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>700.95</v>
+        <v>710.5</v>
       </c>
       <c r="F28" t="n">
-        <v>3522.25</v>
+        <v>3570.25</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CN#252607899666</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>17.5</v>
+        <v>17.75</v>
       </c>
       <c r="J28">
         <f>Index!$C$2</f>
@@ -1924,7 +1927,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1" s="60">
       <c r="A29" s="58" t="n">
-        <v>45959</v>
+        <v>45968</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1940,18 +1943,18 @@
         <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>725.15</v>
+        <v>700.95</v>
       </c>
       <c r="F29" t="n">
-        <v>3643.9</v>
+        <v>3522.25</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252607899666</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>18.15</v>
+        <v>17.5</v>
       </c>
       <c r="J29">
         <f>Index!$C$2</f>
@@ -1960,7 +1963,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1" s="60">
       <c r="A30" s="58" t="n">
-        <v>45958</v>
+        <v>45959</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1976,19 +1979,18 @@
         <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>622.4</v>
-      </c>
-      <c r="F30">
-        <f>D29*E29</f>
-        <v/>
+        <v>725.15</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3643.9</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>CN#252607382790</t>
+          <t>CN#252607497001</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>18.05</v>
+        <v>18.15</v>
       </c>
       <c r="J30">
         <f>Index!$C$2</f>
@@ -1997,7 +1999,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1" s="60">
       <c r="A31" s="58" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2013,10 +2015,11 @@
         <v>5</v>
       </c>
       <c r="E31" t="n">
-        <v>722.4</v>
-      </c>
-      <c r="F31" t="n">
-        <v>3630.05</v>
+        <v>622.4</v>
+      </c>
+      <c r="F31">
+        <f>D29*E29</f>
+        <v/>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2032,106 +2035,44 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="60">
-      <c r="A32" s="25" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B32" s="26" t="inlineStr">
+      <c r="A32" s="58" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C32" s="26" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D32" s="27" t="n">
+      <c r="D32" t="n">
         <v>5</v>
       </c>
-      <c r="E32" s="28" t="n">
-        <v>731.85</v>
-      </c>
-      <c r="F32" s="28">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G32" s="26" t="inlineStr">
+      <c r="E32" t="n">
+        <v>722.4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3630.05</v>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="H32" s="27" t="n"/>
-      <c r="I32" s="27" t="n"/>
-      <c r="J32" s="29">
+      <c r="I32" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="J32">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K32" s="30">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/SUM(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L32" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M32" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N32" s="32">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O32" s="30">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/SUM(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P32" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q32" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R32" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S32" s="30">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/SUM(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T32" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U32" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V32" s="31">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W32" s="31" t="n"/>
-      <c r="X32" s="31" t="n"/>
-      <c r="Y32" s="30">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/SUM(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z32" s="31" t="n"/>
-      <c r="AA32" s="31" t="n"/>
-      <c r="AB32" s="32" t="n"/>
-      <c r="AC32" s="33">
-        <f>IF(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD32" s="34" t="n"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="60">
       <c r="A33" s="25" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B33" s="26" t="inlineStr">
         <is>
@@ -2144,13 +2085,13 @@
         </is>
       </c>
       <c r="D33" s="27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E33" s="28" t="n">
-        <v>723.59</v>
+        <v>731.85</v>
       </c>
       <c r="F33" s="28">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G33" s="26" t="inlineStr">
@@ -2165,71 +2106,71 @@
         <v/>
       </c>
       <c r="K33" s="30">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/SUM(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/SUM(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L33" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M33" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N33" s="32">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O33" s="30">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/SUM(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/SUM(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P33" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q33" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R33" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S33" s="30">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/SUM(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/SUM(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T33" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U33" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V33" s="31">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W33" s="31" t="n"/>
       <c r="X33" s="31" t="n"/>
       <c r="Y33" s="30">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/SUM(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/SUM(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z33" s="31" t="n"/>
       <c r="AA33" s="31" t="n"/>
       <c r="AB33" s="32" t="n"/>
       <c r="AC33" s="33">
-        <f>IF(B6="DIV", F6,"")</f>
+        <f>IF(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD33" s="34" t="n"/>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="60">
       <c r="A34" s="25" t="n">
-        <v>45903</v>
+        <v>45947</v>
       </c>
       <c r="B34" s="26" t="inlineStr">
         <is>
@@ -2242,95 +2183,92 @@
         </is>
       </c>
       <c r="D34" s="27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E34" s="28" t="n">
-        <v>716.8</v>
-      </c>
-      <c r="F34" s="28" t="n">
-        <v>3583.98</v>
+        <v>723.59</v>
+      </c>
+      <c r="F34" s="28">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G34" s="26" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H34" s="27" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="I34" s="27" t="n">
-        <v>21.66</v>
-      </c>
+      <c r="H34" s="27" t="n"/>
+      <c r="I34" s="27" t="n"/>
       <c r="J34" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K34" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/SUM(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L34" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M34" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N34" s="32">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O34" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/SUM(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P34" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q34" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R34" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S34" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/SUM(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T34" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U34" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V34" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W34" s="31" t="n"/>
       <c r="X34" s="31" t="n"/>
       <c r="Y34" s="30">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/SUM(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/SUM(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z34" s="31" t="n"/>
       <c r="AA34" s="31" t="n"/>
       <c r="AB34" s="32" t="n"/>
       <c r="AC34" s="33">
-        <f>IF(B7="DIV", F7,"")</f>
+        <f>IF(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD34" s="34" t="n"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="60">
       <c r="A35" s="25" t="n">
-        <v>45897</v>
+        <v>45903</v>
       </c>
       <c r="B35" s="26" t="inlineStr">
         <is>
@@ -2343,13 +2281,13 @@
         </is>
       </c>
       <c r="D35" s="27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E35" s="28" t="n">
-        <v>714.49</v>
+        <v>716.8</v>
       </c>
       <c r="F35" s="28" t="n">
-        <v>1428.97</v>
+        <v>3583.98</v>
       </c>
       <c r="G35" s="26" t="inlineStr">
         <is>
@@ -2357,85 +2295,85 @@
         </is>
       </c>
       <c r="H35" s="27" t="n">
-        <v>1.42</v>
+        <v>3.57</v>
       </c>
       <c r="I35" s="27" t="n">
-        <v>8.65</v>
+        <v>21.66</v>
       </c>
       <c r="J35" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K35" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L35" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M35" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N35" s="32">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O35" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P35" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q35" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R35" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S35" s="30">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T35" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U35" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V35" s="31">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W35" s="31" t="n"/>
       <c r="X35" s="31" t="n"/>
       <c r="Y35" s="30">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/SUM(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z35" s="31" t="n"/>
       <c r="AA35" s="31" t="n"/>
       <c r="AB35" s="32" t="n"/>
       <c r="AC35" s="33">
-        <f>IF(B8="DIV", F8,"")</f>
+        <f>IF(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD35" s="34" t="n"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="60">
       <c r="A36" s="25" t="n">
-        <v>45891</v>
+        <v>45897</v>
       </c>
       <c r="B36" s="26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C36" s="26" t="inlineStr">
@@ -2444,99 +2382,99 @@
         </is>
       </c>
       <c r="D36" s="27" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E36" s="28" t="n">
-        <v>1</v>
+        <v>714.49</v>
       </c>
       <c r="F36" s="28" t="n">
-        <v>60</v>
+        <v>1428.97</v>
       </c>
       <c r="G36" s="26" t="inlineStr">
         <is>
-          <t>Final-Dividend of Rs.1.0000/- per share on Ex-Date: 22-AUG-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H36" s="27" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="I36" s="27" t="n">
-        <v>0</v>
+        <v>8.65</v>
       </c>
       <c r="J36" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K36" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L36" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M36" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N36" s="32">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O36" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P36" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R36" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S36" s="30">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T36" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U36" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V36" s="31">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W36" s="31" t="n"/>
       <c r="X36" s="31" t="n"/>
       <c r="Y36" s="30">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/SUM(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/SUM(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z36" s="31" t="n"/>
       <c r="AA36" s="31" t="n"/>
       <c r="AB36" s="32" t="n"/>
       <c r="AC36" s="33">
-        <f>IF(B9="DIV", F9,"")</f>
+        <f>IF(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD36" s="34" t="n"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="60">
       <c r="A37" s="25" t="n">
-        <v>45855</v>
+        <v>45891</v>
       </c>
       <c r="B37" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C37" s="26" t="inlineStr">
@@ -2545,95 +2483,95 @@
         </is>
       </c>
       <c r="D37" s="27" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E37" s="28" t="n">
-        <v>781.8</v>
+        <v>1</v>
       </c>
       <c r="F37" s="28" t="n">
-        <v>3909</v>
+        <v>60</v>
       </c>
       <c r="G37" s="26" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Final-Dividend of Rs.1.0000/- per share on Ex-Date: 22-AUG-2025</t>
         </is>
       </c>
       <c r="H37" s="27" t="n">
-        <v>3.88</v>
+        <v>0</v>
       </c>
       <c r="I37" s="27" t="n">
-        <v>23.62</v>
+        <v>0</v>
       </c>
       <c r="J37" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L37" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M37" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N37" s="32">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O37" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P37" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R37" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S37" s="30">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T37" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U37" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V37" s="31">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W37" s="31" t="n"/>
       <c r="X37" s="31" t="n"/>
       <c r="Y37" s="30">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/SUM(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/SUM(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z37" s="31" t="n"/>
       <c r="AA37" s="31" t="n"/>
       <c r="AB37" s="32" t="n"/>
       <c r="AC37" s="33">
-        <f>IF(B10="DIV", F10,"")</f>
+        <f>IF(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD37" s="34" t="n"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="60">
       <c r="A38" s="25" t="n">
-        <v>45820</v>
+        <v>45855</v>
       </c>
       <c r="B38" s="26" t="inlineStr">
         <is>
@@ -2649,10 +2587,10 @@
         <v>5</v>
       </c>
       <c r="E38" s="28" t="n">
-        <v>790.15</v>
+        <v>781.8</v>
       </c>
       <c r="F38" s="28" t="n">
-        <v>3950.75</v>
+        <v>3909</v>
       </c>
       <c r="G38" s="26" t="inlineStr">
         <is>
@@ -2660,81 +2598,81 @@
         </is>
       </c>
       <c r="H38" s="27" t="n">
-        <v>3.91</v>
+        <v>3.88</v>
       </c>
       <c r="I38" s="27" t="n">
-        <v>23.84</v>
+        <v>23.62</v>
       </c>
       <c r="J38" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L38" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M38" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N38" s="32">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O38" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P38" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R38" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S38" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T38" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U38" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V38" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W38" s="31" t="n"/>
       <c r="X38" s="31" t="n"/>
       <c r="Y38" s="30">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/SUM(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z38" s="31" t="n"/>
       <c r="AA38" s="31" t="n"/>
       <c r="AB38" s="32" t="n"/>
       <c r="AC38" s="33">
-        <f>IF(B11="DIV", F11,"")</f>
+        <f>IF(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD38" s="34" t="n"/>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="60">
       <c r="A39" s="25" t="n">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="B39" s="26" t="inlineStr">
         <is>
@@ -2747,13 +2685,13 @@
         </is>
       </c>
       <c r="D39" s="27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E39" s="28" t="n">
-        <v>776.91</v>
+        <v>790.15</v>
       </c>
       <c r="F39" s="28" t="n">
-        <v>1553.82</v>
+        <v>3950.75</v>
       </c>
       <c r="G39" s="26" t="inlineStr">
         <is>
@@ -2761,74 +2699,74 @@
         </is>
       </c>
       <c r="H39" s="27" t="n">
-        <v>1.54</v>
+        <v>3.91</v>
       </c>
       <c r="I39" s="27" t="n">
-        <v>9.380000000000001</v>
+        <v>23.84</v>
       </c>
       <c r="J39" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L39" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M39" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N39" s="32">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O39" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P39" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R39" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S39" s="30">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T39" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U39" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V39" s="31">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W39" s="31" t="n"/>
       <c r="X39" s="31" t="n"/>
       <c r="Y39" s="30">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/SUM(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z39" s="31" t="n"/>
       <c r="AA39" s="31" t="n"/>
       <c r="AB39" s="32" t="n"/>
       <c r="AC39" s="33">
-        <f>IF(B12="DIV", F12,"")</f>
+        <f>IF(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD39" s="34" t="n"/>
@@ -2848,13 +2786,13 @@
         </is>
       </c>
       <c r="D40" s="27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E40" s="28" t="n">
-        <v>776.92</v>
+        <v>776.91</v>
       </c>
       <c r="F40" s="28" t="n">
-        <v>3884.62</v>
+        <v>1553.82</v>
       </c>
       <c r="G40" s="26" t="inlineStr">
         <is>
@@ -2862,182 +2800,182 @@
         </is>
       </c>
       <c r="H40" s="27" t="n">
-        <v>3.86</v>
+        <v>1.54</v>
       </c>
       <c r="I40" s="27" t="n">
-        <v>23.51</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="J40" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L40" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M40" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N40" s="32">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O40" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P40" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R40" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S40" s="30">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T40" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U40" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V40" s="31">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W40" s="31" t="n"/>
       <c r="X40" s="31" t="n"/>
       <c r="Y40" s="30">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/SUM(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/SUM(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z40" s="31" t="n"/>
       <c r="AA40" s="31" t="n"/>
       <c r="AB40" s="32" t="n"/>
       <c r="AC40" s="33">
-        <f>IF(B13="DIV", F13,"")</f>
+        <f>IF(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD40" s="34" t="n"/>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="60">
-      <c r="A41" s="35" t="n">
-        <v>45716</v>
-      </c>
-      <c r="B41" s="36" t="inlineStr">
+      <c r="A41" s="25" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B41" s="26" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C41" s="36" t="inlineStr">
+      <c r="C41" s="26" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D41" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="E41" s="38" t="n">
-        <v>680.1900000000001</v>
-      </c>
-      <c r="F41" s="38" t="n">
-        <v>2040.56</v>
-      </c>
-      <c r="G41" s="36" t="inlineStr">
+      <c r="D41" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" s="28" t="n">
+        <v>776.92</v>
+      </c>
+      <c r="F41" s="28" t="n">
+        <v>3884.62</v>
+      </c>
+      <c r="G41" s="26" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H41" s="37" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I41" s="37" t="n">
-        <v>12.34</v>
+      <c r="H41" s="27" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="I41" s="27" t="n">
+        <v>23.51</v>
       </c>
       <c r="J41" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L41" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M41" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N41" s="32">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O41" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P41" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R41" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S41" s="30">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T41" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U41" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V41" s="31">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W41" s="31" t="n"/>
       <c r="X41" s="31" t="n"/>
       <c r="Y41" s="30">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/SUM(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/SUM(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z41" s="31" t="n"/>
       <c r="AA41" s="31" t="n"/>
       <c r="AB41" s="32" t="n"/>
       <c r="AC41" s="33">
-        <f>IF(B14="DIV", F14,"")</f>
+        <f>IF(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD41" s="34" t="n"/>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="60">
       <c r="A42" s="35" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B42" s="36" t="inlineStr">
         <is>
@@ -3050,13 +2988,13 @@
         </is>
       </c>
       <c r="D42" s="37" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E42" s="38" t="n">
-        <v>728.63</v>
+        <v>680.1900000000001</v>
       </c>
       <c r="F42" s="38" t="n">
-        <v>5100.4</v>
+        <v>2040.56</v>
       </c>
       <c r="G42" s="36" t="inlineStr">
         <is>
@@ -3064,74 +3002,74 @@
         </is>
       </c>
       <c r="H42" s="37" t="n">
-        <v>5.06</v>
+        <v>2.02</v>
       </c>
       <c r="I42" s="37" t="n">
-        <v>30.84</v>
+        <v>12.34</v>
       </c>
       <c r="J42" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L42" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M42" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N42" s="32">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O42" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P42" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R42" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S42" s="30">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T42" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U42" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V42" s="31">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W42" s="31" t="n"/>
       <c r="X42" s="31" t="n"/>
       <c r="Y42" s="30">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/SUM(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/SUM(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z42" s="31" t="n"/>
       <c r="AA42" s="31" t="n"/>
       <c r="AB42" s="32" t="n"/>
       <c r="AC42" s="33">
-        <f>IF(B15="DIV", F15,"")</f>
+        <f>IF(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD42" s="34" t="n"/>
@@ -3151,13 +3089,13 @@
         </is>
       </c>
       <c r="D43" s="37" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E43" s="38" t="n">
-        <v>728.64</v>
+        <v>728.63</v>
       </c>
       <c r="F43" s="38" t="n">
-        <v>2185.91</v>
+        <v>5100.4</v>
       </c>
       <c r="G43" s="36" t="inlineStr">
         <is>
@@ -3165,81 +3103,81 @@
         </is>
       </c>
       <c r="H43" s="37" t="n">
-        <v>2.17</v>
+        <v>5.06</v>
       </c>
       <c r="I43" s="37" t="n">
-        <v>13.24</v>
+        <v>30.84</v>
       </c>
       <c r="J43" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L43" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M43" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N43" s="32">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O43" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P43" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R43" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S43" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T43" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U43" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V43" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W43" s="31" t="n"/>
       <c r="X43" s="31" t="n"/>
       <c r="Y43" s="30">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/SUM(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z43" s="31" t="n"/>
       <c r="AA43" s="31" t="n"/>
       <c r="AB43" s="32" t="n"/>
       <c r="AC43" s="33">
-        <f>IF(B16="DIV", F16,"")</f>
+        <f>IF(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD43" s="34" t="n"/>
     </row>
     <row r="44" ht="15.75" customHeight="1" s="60">
       <c r="A44" s="35" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B44" s="36" t="inlineStr">
         <is>
@@ -3252,13 +3190,13 @@
         </is>
       </c>
       <c r="D44" s="37" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E44" s="38" t="n">
-        <v>730.14</v>
+        <v>728.64</v>
       </c>
       <c r="F44" s="38" t="n">
-        <v>14602.86</v>
+        <v>2185.91</v>
       </c>
       <c r="G44" s="36" t="inlineStr">
         <is>
@@ -3266,81 +3204,81 @@
         </is>
       </c>
       <c r="H44" s="37" t="n">
-        <v>14.48</v>
+        <v>2.17</v>
       </c>
       <c r="I44" s="37" t="n">
-        <v>88.38</v>
+        <v>13.24</v>
       </c>
       <c r="J44" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L44" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M44" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N44" s="32">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O44" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P44" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R44" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S44" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T44" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U44" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V44" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W44" s="31" t="n"/>
       <c r="X44" s="31" t="n"/>
       <c r="Y44" s="30">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z44" s="31" t="n"/>
       <c r="AA44" s="31" t="n"/>
       <c r="AB44" s="32" t="n"/>
       <c r="AC44" s="33">
-        <f>IF(B17="DIV", F17,"")</f>
+        <f>IF(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD44" s="34" t="n"/>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="60">
       <c r="A45" s="35" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B45" s="36" t="inlineStr">
         <is>
@@ -3353,13 +3291,13 @@
         </is>
       </c>
       <c r="D45" s="37" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E45" s="38" t="n">
-        <v>763.17</v>
+        <v>730.14</v>
       </c>
       <c r="F45" s="38" t="n">
-        <v>1526.34</v>
+        <v>14602.86</v>
       </c>
       <c r="G45" s="36" t="inlineStr">
         <is>
@@ -3367,74 +3305,74 @@
         </is>
       </c>
       <c r="H45" s="37" t="n">
-        <v>1.52</v>
+        <v>14.48</v>
       </c>
       <c r="I45" s="37" t="n">
-        <v>9.220000000000001</v>
+        <v>88.38</v>
       </c>
       <c r="J45" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L45" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M45" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N45" s="32">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O45" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P45" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R45" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S45" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T45" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U45" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V45" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W45" s="31" t="n"/>
       <c r="X45" s="31" t="n"/>
       <c r="Y45" s="30">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z45" s="31" t="n"/>
       <c r="AA45" s="31" t="n"/>
       <c r="AB45" s="32" t="n"/>
       <c r="AC45" s="33">
-        <f>IF(B18="DIV", F18,"")</f>
+        <f>IF(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD45" s="34" t="n"/>
@@ -3454,13 +3392,13 @@
         </is>
       </c>
       <c r="D46" s="37" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E46" s="38" t="n">
         <v>763.17</v>
       </c>
       <c r="F46" s="38" t="n">
-        <v>6105.37</v>
+        <v>1526.34</v>
       </c>
       <c r="G46" s="36" t="inlineStr">
         <is>
@@ -3468,93 +3406,178 @@
         </is>
       </c>
       <c r="H46" s="37" t="n">
-        <v>6.06</v>
+        <v>1.52</v>
       </c>
       <c r="I46" s="37" t="n">
-        <v>36.91</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="J46" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L46" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M46" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N46" s="32">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O46" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P46" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R46" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S46" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T46" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U46" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V46" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W46" s="31" t="n"/>
       <c r="X46" s="31" t="n"/>
       <c r="Y46" s="30">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z46" s="31" t="n"/>
       <c r="AA46" s="31" t="n"/>
       <c r="AB46" s="32" t="n"/>
       <c r="AC46" s="33">
+        <f>IF(B18="DIV", F18,"")</f>
+        <v/>
+      </c>
+      <c r="AD46" s="34" t="n"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1" s="60">
+      <c r="A47" s="35" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B47" s="36" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C47" s="36" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D47" s="37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E47" s="38" t="n">
+        <v>763.17</v>
+      </c>
+      <c r="F47" s="38" t="n">
+        <v>6105.37</v>
+      </c>
+      <c r="G47" s="36" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H47" s="37" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="I47" s="37" t="n">
+        <v>36.91</v>
+      </c>
+      <c r="J47" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K47" s="30">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="L47" s="31">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <v/>
+      </c>
+      <c r="M47" s="31">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <v/>
+      </c>
+      <c r="N47" s="32">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <v/>
+      </c>
+      <c r="O47" s="30">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="P47" s="31">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <v/>
+      </c>
+      <c r="Q47" s="31">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <v/>
+      </c>
+      <c r="R47" s="31">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <v/>
+      </c>
+      <c r="S47" s="30">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="T47" s="31">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <v/>
+      </c>
+      <c r="U47" s="31">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <v/>
+      </c>
+      <c r="V47" s="31">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <v/>
+      </c>
+      <c r="W47" s="31" t="n"/>
+      <c r="X47" s="31" t="n"/>
+      <c r="Y47" s="30">
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="Z47" s="31" t="n"/>
+      <c r="AA47" s="31" t="n"/>
+      <c r="AB47" s="32" t="n"/>
+      <c r="AC47" s="33">
         <f>IF(B19="DIV", F19,"")</f>
         <v/>
       </c>
-      <c r="AD46" s="34" t="n"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1" s="60">
-      <c r="E47" s="39" t="n"/>
-      <c r="F47" s="39" t="n"/>
-      <c r="G47" s="40" t="n"/>
-      <c r="J47" s="39" t="n"/>
-      <c r="K47" s="39" t="n"/>
-      <c r="L47" s="39" t="n"/>
-      <c r="M47" s="1" t="n"/>
-      <c r="W47" s="39" t="n"/>
-      <c r="X47" s="39" t="n"/>
-      <c r="Y47" s="39" t="n"/>
-      <c r="Z47" s="39" t="n"/>
-      <c r="AA47" s="39" t="n"/>
-      <c r="AB47" s="39" t="n"/>
-      <c r="AC47" s="39" t="n"/>
+      <c r="AD47" s="34" t="n"/>
     </row>
     <row r="48" ht="15.75" customHeight="1" s="60">
       <c r="E48" s="39" t="n"/>
@@ -18523,6 +18546,7 @@
       <c r="J983" s="39" t="n"/>
       <c r="K983" s="39" t="n"/>
       <c r="L983" s="39" t="n"/>
+      <c r="M983" s="1" t="n"/>
       <c r="W983" s="39" t="n"/>
       <c r="X983" s="39" t="n"/>
       <c r="Y983" s="39" t="n"/>
@@ -18770,6 +18794,21 @@
       <c r="AA999" s="39" t="n"/>
       <c r="AB999" s="39" t="n"/>
       <c r="AC999" s="39" t="n"/>
+    </row>
+    <row r="1000">
+      <c r="E1000" s="39" t="n"/>
+      <c r="F1000" s="39" t="n"/>
+      <c r="G1000" s="40" t="n"/>
+      <c r="J1000" s="39" t="n"/>
+      <c r="K1000" s="39" t="n"/>
+      <c r="L1000" s="39" t="n"/>
+      <c r="W1000" s="39" t="n"/>
+      <c r="X1000" s="39" t="n"/>
+      <c r="Y1000" s="39" t="n"/>
+      <c r="Z1000" s="39" t="n"/>
+      <c r="AA1000" s="39" t="n"/>
+      <c r="AB1000" s="39" t="n"/>
+      <c r="AC1000" s="39" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO50"/>
